--- a/capiq_data/in_process_data/IQ274715.xlsx
+++ b/capiq_data/in_process_data/IQ274715.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCEB7A8-8629-4637-ABC3-F97A17CF3B06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27589866-7CD4-493E-8155-A9CA596E3ED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ddd7fc52-5e5f-43ae-90d8-404a84379c1a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"b8cc5cfc-9507-41f5-a8d0-cd19a724b4cb"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40510</v>
+        <v>36856</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>613.9</v>
+        <v>202.7</v>
       </c>
       <c r="D2">
-        <v>4066.6</v>
+        <v>1895.2</v>
       </c>
       <c r="E2">
-        <v>1299.0999999999999</v>
+        <v>588.9</v>
       </c>
       <c r="F2">
-        <v>1634</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="G2">
-        <v>4016.6</v>
+        <v>1367.7</v>
       </c>
       <c r="H2">
-        <v>18378.5</v>
+        <v>4899.3999999999996</v>
       </c>
       <c r="I2">
-        <v>826.7</v>
+        <v>568.9</v>
       </c>
       <c r="J2">
-        <v>5864.1</v>
+        <v>2026.4</v>
       </c>
       <c r="K2">
-        <v>1169.9000000000001</v>
+        <v>1117.0999999999999</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3733.6</v>
+        <v>2450.6</v>
       </c>
       <c r="O2">
-        <v>12493.7</v>
+        <v>5060.3</v>
       </c>
       <c r="P2">
-        <v>7045.7</v>
+        <v>3491.3</v>
       </c>
       <c r="Q2">
-        <v>-130.69999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="R2">
-        <v>40510</v>
+        <v>36856</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>5884.8</v>
+        <v>-160.9</v>
       </c>
       <c r="U2">
-        <v>566.29999999999995</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="V2">
-        <v>421.9</v>
+        <v>142.6</v>
       </c>
       <c r="W2">
-        <v>-182.2</v>
+        <v>-77.8</v>
       </c>
       <c r="X2">
-        <v>-425.4</v>
+        <v>-15.2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="AA2">
-        <v>613.9</v>
+        <v>202.7</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40601</v>
+        <v>36947</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>392.1</v>
+        <v>157.5</v>
       </c>
       <c r="D3">
-        <v>3646.2</v>
+        <v>1701.6</v>
       </c>
       <c r="E3">
-        <v>1185.9000000000001</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="F3">
-        <v>1430.8</v>
+        <v>993.6</v>
       </c>
       <c r="G3">
-        <v>3842.9</v>
+        <v>1350.7</v>
       </c>
       <c r="H3">
-        <v>18281.5</v>
+        <v>4995.5</v>
       </c>
       <c r="I3">
-        <v>830.1</v>
+        <v>496.8</v>
       </c>
       <c r="J3">
-        <v>4844.2</v>
+        <v>2521.4</v>
       </c>
       <c r="K3">
-        <v>974.5</v>
+        <v>929.4</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4511.3</v>
+        <v>1920.2</v>
       </c>
       <c r="O3">
-        <v>12169.3</v>
+        <v>5030.1000000000004</v>
       </c>
       <c r="P3">
-        <v>6849.9</v>
+        <v>3501.6</v>
       </c>
       <c r="Q3">
-        <v>-26</v>
+        <v>10.4</v>
       </c>
       <c r="R3">
-        <v>40601</v>
+        <v>36947</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>6112.2</v>
+        <v>-34.6</v>
       </c>
       <c r="U3">
-        <v>540.29999999999995</v>
+        <v>77.3</v>
       </c>
       <c r="V3">
-        <v>648.6</v>
+        <v>195.1</v>
       </c>
       <c r="W3">
-        <v>-181.2</v>
+        <v>-78.2</v>
       </c>
       <c r="X3">
-        <v>-489.3</v>
+        <v>-60.4</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.1</v>
+        <v>-17.3</v>
       </c>
       <c r="AA3">
-        <v>392.1</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40692</v>
+        <v>37038</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>320.2</v>
+        <v>145.9</v>
       </c>
       <c r="D4">
-        <v>3634.3</v>
+        <v>178.3</v>
       </c>
       <c r="E4">
-        <v>1162.3</v>
+        <v>664</v>
       </c>
       <c r="F4">
-        <v>1364.4</v>
+        <v>-548.29999999999995</v>
       </c>
       <c r="G4">
-        <v>3902</v>
+        <v>1408</v>
       </c>
       <c r="H4">
-        <v>18674.5</v>
+        <v>5091</v>
       </c>
       <c r="I4">
-        <v>995.1</v>
+        <v>619</v>
       </c>
       <c r="J4">
-        <v>5564.7</v>
+        <v>2221</v>
       </c>
       <c r="K4">
-        <v>311.3</v>
+        <v>858</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,164 +1058,164 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3659.2</v>
+        <v>2209</v>
       </c>
       <c r="O4">
-        <v>12062.3</v>
+        <v>5039</v>
       </c>
       <c r="P4">
-        <v>6907.3</v>
+        <v>3428</v>
       </c>
       <c r="Q4">
-        <v>79.3</v>
+        <v>-12.7</v>
       </c>
       <c r="R4">
-        <v>40692</v>
+        <v>37038</v>
       </c>
       <c r="S4">
-        <v>35000</v>
+        <v>11001</v>
       </c>
       <c r="T4">
-        <v>6612.2</v>
+        <v>52</v>
       </c>
       <c r="U4">
-        <v>619.6</v>
+        <v>64</v>
       </c>
       <c r="V4">
-        <v>278.7</v>
+        <v>233.5</v>
       </c>
       <c r="W4">
-        <v>-181.9</v>
+        <v>-77.900000000000006</v>
       </c>
       <c r="X4">
-        <v>35.4</v>
+        <v>-130.1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AA4">
-        <v>320.2</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40783</v>
+        <v>37129</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>405.6</v>
+        <v>188</v>
       </c>
       <c r="D5">
-        <v>3847.6</v>
+        <v>1404</v>
       </c>
       <c r="E5">
-        <v>1504</v>
+        <v>600.1</v>
       </c>
       <c r="F5">
-        <v>1446.5</v>
+        <v>683</v>
       </c>
       <c r="G5">
-        <v>4096.3999999999996</v>
+        <v>1379.4</v>
       </c>
       <c r="H5">
-        <v>21893.200000000001</v>
+        <v>5158.6000000000004</v>
       </c>
       <c r="I5">
-        <v>1181.9000000000001</v>
+        <v>548.1</v>
       </c>
       <c r="J5">
-        <v>5974.2</v>
+        <v>2213.1</v>
       </c>
       <c r="K5">
-        <v>1022.7</v>
+        <v>876.9</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-6.6</v>
+        <v>-18</v>
       </c>
       <c r="N5">
-        <v>4884</v>
+        <v>2181.1</v>
       </c>
       <c r="O5">
-        <v>13979.8</v>
+        <v>5255.6</v>
       </c>
       <c r="P5">
-        <v>8122.8</v>
+        <v>3442.9</v>
       </c>
       <c r="Q5">
-        <v>-281.39999999999998</v>
+        <v>-11</v>
       </c>
       <c r="R5">
-        <v>40783</v>
+        <v>37129</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7913.4</v>
+        <v>-97</v>
       </c>
       <c r="U5">
-        <v>338.2</v>
+        <v>53.5</v>
       </c>
       <c r="V5">
-        <v>440.8</v>
+        <v>215</v>
       </c>
       <c r="W5">
-        <v>-200.3</v>
+        <v>-78</v>
       </c>
       <c r="X5">
-        <v>431.9</v>
+        <v>-109</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AA5">
-        <v>405.6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40874</v>
+        <v>37220</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>444.8</v>
+        <v>131</v>
       </c>
       <c r="D6">
-        <v>4623.8</v>
+        <v>1842</v>
       </c>
       <c r="E6">
-        <v>1510.4</v>
+        <v>1218.8</v>
       </c>
       <c r="F6">
-        <v>1594.7</v>
+        <v>802</v>
       </c>
       <c r="G6">
-        <v>4021.6</v>
+        <v>4076.8</v>
       </c>
       <c r="H6">
-        <v>21466.799999999999</v>
+        <v>17124.3</v>
       </c>
       <c r="I6">
-        <v>1096.5</v>
+        <v>1183.7</v>
       </c>
       <c r="J6">
-        <v>5348.4</v>
+        <v>2206.4</v>
       </c>
       <c r="K6">
-        <v>849</v>
+        <v>7220.5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5142</v>
+        <v>9809.1</v>
       </c>
       <c r="O6">
-        <v>13582.1</v>
+        <v>13571.6</v>
       </c>
       <c r="P6">
-        <v>7929.8</v>
+        <v>10010.5</v>
       </c>
       <c r="Q6">
-        <v>170.9</v>
+        <v>800</v>
       </c>
       <c r="R6">
-        <v>40874</v>
+        <v>37220</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>7884.7</v>
+        <v>3552.7</v>
       </c>
       <c r="U6">
-        <v>509.1</v>
+        <v>853.5</v>
       </c>
       <c r="V6">
-        <v>715.7</v>
+        <v>194</v>
       </c>
       <c r="W6">
-        <v>-199.2</v>
+        <v>-79</v>
       </c>
       <c r="X6">
-        <v>-375.9</v>
+        <v>3972</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-22.1</v>
+        <v>-30</v>
       </c>
       <c r="AA6">
-        <v>444.8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40965</v>
+        <v>37311</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>391.5</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>4120.1000000000004</v>
+        <v>2379</v>
       </c>
       <c r="E7">
-        <v>1437.1</v>
+        <v>1140.5999999999999</v>
       </c>
       <c r="F7">
-        <v>1507.4</v>
+        <v>912</v>
       </c>
       <c r="G7">
-        <v>3836.3</v>
+        <v>3763.7</v>
       </c>
       <c r="H7">
-        <v>21439</v>
+        <v>16838.2</v>
       </c>
       <c r="I7">
-        <v>1011.9</v>
+        <v>1202.2</v>
       </c>
       <c r="J7">
-        <v>6194.8</v>
+        <v>5590.7</v>
       </c>
       <c r="K7">
-        <v>690.8</v>
+        <v>3648.2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3849</v>
+        <v>6241.8</v>
       </c>
       <c r="O7">
-        <v>13186.2</v>
+        <v>13291.1</v>
       </c>
       <c r="P7">
-        <v>7634.9</v>
+        <v>9850.2999999999993</v>
       </c>
       <c r="Q7">
-        <v>-23.8</v>
+        <v>470</v>
       </c>
       <c r="R7">
-        <v>40965</v>
+        <v>37311</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>8252.7999999999993</v>
+        <v>3547.1</v>
       </c>
       <c r="U7">
-        <v>485.3</v>
+        <v>1322.7</v>
       </c>
       <c r="V7">
-        <v>505.1</v>
+        <v>195</v>
       </c>
       <c r="W7">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X7">
-        <v>-377.5</v>
+        <v>-214</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AA7">
-        <v>391.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41056</v>
+        <v>37402</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>325.39999999999998</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>4066.4</v>
+        <v>2324</v>
       </c>
       <c r="E8">
-        <v>1323.6</v>
+        <v>1010</v>
       </c>
       <c r="F8">
-        <v>1496.1</v>
+        <v>860</v>
       </c>
       <c r="G8">
-        <v>3691.4</v>
+        <v>3437</v>
       </c>
       <c r="H8">
-        <v>21096.799999999999</v>
+        <v>16540</v>
       </c>
       <c r="I8">
-        <v>1148.9000000000001</v>
+        <v>1217</v>
       </c>
       <c r="J8">
-        <v>6161.9</v>
+        <v>5591</v>
       </c>
       <c r="K8">
-        <v>526.5</v>
+        <v>3600</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,164 +1390,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3843.2</v>
+        <v>5747</v>
       </c>
       <c r="O8">
-        <v>13366.3</v>
+        <v>12811</v>
       </c>
       <c r="P8">
-        <v>7429.6</v>
+        <v>9439</v>
       </c>
       <c r="Q8">
-        <v>-14.1</v>
+        <v>-348</v>
       </c>
       <c r="R8">
-        <v>41056</v>
+        <v>37402</v>
       </c>
       <c r="S8">
-        <v>35000</v>
+        <v>29859</v>
       </c>
       <c r="T8">
-        <v>7730.5</v>
+        <v>3729</v>
       </c>
       <c r="U8">
-        <v>471.2</v>
+        <v>975</v>
       </c>
       <c r="V8">
-        <v>745.6</v>
+        <v>309</v>
       </c>
       <c r="W8">
-        <v>-200.6</v>
+        <v>-101</v>
       </c>
       <c r="X8">
-        <v>-345.1</v>
+        <v>-380</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.1</v>
+        <v>11</v>
       </c>
       <c r="AA8">
-        <v>325.39999999999998</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41147</v>
+        <v>37493</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>548.9</v>
+        <v>176</v>
       </c>
       <c r="D9">
-        <v>4051</v>
+        <v>2362</v>
       </c>
       <c r="E9">
-        <v>1473.5</v>
+        <v>1059</v>
       </c>
       <c r="F9">
-        <v>1628.3</v>
+        <v>1013</v>
       </c>
       <c r="G9">
-        <v>5217.3999999999996</v>
+        <v>3420</v>
       </c>
       <c r="H9">
-        <v>22635.3</v>
+        <v>16597</v>
       </c>
       <c r="I9">
-        <v>1264.9000000000001</v>
+        <v>1328</v>
       </c>
       <c r="J9">
-        <v>5462</v>
+        <v>5547</v>
       </c>
       <c r="K9">
-        <v>1682.1</v>
+        <v>3269</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.4</v>
+        <v>-401</v>
       </c>
       <c r="N9">
-        <v>5975.5</v>
+        <v>5595</v>
       </c>
       <c r="O9">
-        <v>14690.5</v>
+        <v>12637</v>
       </c>
       <c r="P9">
-        <v>8585.2000000000007</v>
+        <v>9045</v>
       </c>
       <c r="Q9">
-        <v>1037.2</v>
+        <v>-230</v>
       </c>
       <c r="R9">
-        <v>41147</v>
+        <v>37493</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7944.8</v>
+        <v>3960</v>
       </c>
       <c r="U9">
-        <v>1508.4</v>
+        <v>745</v>
       </c>
       <c r="V9">
-        <v>488.8</v>
+        <v>270</v>
       </c>
       <c r="W9">
-        <v>-217.8</v>
+        <v>-101</v>
       </c>
       <c r="X9">
-        <v>692.8</v>
+        <v>-336</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>7.5</v>
+        <v>-4</v>
       </c>
       <c r="AA9">
-        <v>548.9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41238</v>
+        <v>37584</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>541.6</v>
+        <v>276</v>
       </c>
       <c r="D10">
-        <v>4881.8</v>
+        <v>2953</v>
       </c>
       <c r="E10">
-        <v>1673.8</v>
+        <v>1236</v>
       </c>
       <c r="F10">
-        <v>1742.3</v>
+        <v>1242</v>
       </c>
       <c r="G10">
-        <v>4565.5</v>
+        <v>4682</v>
       </c>
       <c r="H10">
-        <v>22952.9</v>
+        <v>19276</v>
       </c>
       <c r="I10">
-        <v>1244.9000000000001</v>
+        <v>1499</v>
       </c>
       <c r="J10">
-        <v>5572.1</v>
+        <v>7480</v>
       </c>
       <c r="K10">
-        <v>1939.9</v>
+        <v>2379</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5736.4</v>
+        <v>4826</v>
       </c>
       <c r="O10">
-        <v>14635.3</v>
+        <v>15168</v>
       </c>
       <c r="P10">
-        <v>8332.7999999999993</v>
+        <v>9959</v>
       </c>
       <c r="Q10">
-        <v>-773.5</v>
+        <v>1002</v>
       </c>
       <c r="R10">
-        <v>41238</v>
+        <v>37584</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>8317.6</v>
+        <v>4108</v>
       </c>
       <c r="U10">
-        <v>734.9</v>
+        <v>1747</v>
       </c>
       <c r="V10">
-        <v>828.3</v>
+        <v>409</v>
       </c>
       <c r="W10">
-        <v>-216.7</v>
+        <v>-101</v>
       </c>
       <c r="X10">
-        <v>-659.1</v>
+        <v>758</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-11.2</v>
+        <v>-17</v>
       </c>
       <c r="AA10">
-        <v>541.6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41329</v>
+        <v>37675</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>398.4</v>
+        <v>240</v>
       </c>
       <c r="D11">
-        <v>4430.6000000000004</v>
+        <v>2645</v>
       </c>
       <c r="E11">
-        <v>1591.5</v>
+        <v>1111</v>
       </c>
       <c r="F11">
-        <v>1522.7</v>
+        <v>1078</v>
       </c>
       <c r="G11">
-        <v>4365.8</v>
+        <v>3840</v>
       </c>
       <c r="H11">
-        <v>22793.4</v>
+        <v>18562</v>
       </c>
       <c r="I11">
-        <v>1186</v>
+        <v>1286</v>
       </c>
       <c r="J11">
-        <v>6631.9</v>
+        <v>7473</v>
       </c>
       <c r="K11">
-        <v>682.7</v>
+        <v>1746</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4282.6000000000004</v>
+        <v>3956</v>
       </c>
       <c r="O11">
-        <v>14329.8</v>
+        <v>14250</v>
       </c>
       <c r="P11">
-        <v>8058.6</v>
+        <v>9339</v>
       </c>
       <c r="Q11">
-        <v>16.3</v>
+        <v>-545</v>
       </c>
       <c r="R11">
-        <v>41329</v>
+        <v>37675</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8463.6</v>
+        <v>4312</v>
       </c>
       <c r="U11">
-        <v>751.2</v>
+        <v>1202</v>
       </c>
       <c r="V11">
-        <v>828.6</v>
+        <v>353</v>
       </c>
       <c r="W11">
-        <v>-217.1</v>
+        <v>-102</v>
       </c>
       <c r="X11">
-        <v>-633</v>
+        <v>-719</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="AA11">
-        <v>398.4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41420</v>
+        <v>37766</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>366.3</v>
+        <v>225</v>
       </c>
       <c r="D12">
-        <v>4410.7</v>
+        <v>2546</v>
       </c>
       <c r="E12">
-        <v>1446.4</v>
+        <v>980</v>
       </c>
       <c r="F12">
-        <v>1547.6</v>
+        <v>1064</v>
       </c>
       <c r="G12">
-        <v>4298.8999999999996</v>
+        <v>3179</v>
       </c>
       <c r="H12">
-        <v>22658</v>
+        <v>18227</v>
       </c>
       <c r="I12">
-        <v>1423.2</v>
+        <v>1303</v>
       </c>
       <c r="J12">
-        <v>5926.1</v>
+        <v>7516</v>
       </c>
       <c r="K12">
-        <v>599.70000000000005</v>
+        <v>1236</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5293.9</v>
+        <v>3444</v>
       </c>
       <c r="O12">
-        <v>14562</v>
+        <v>13752</v>
       </c>
       <c r="P12">
-        <v>7969.1</v>
+        <v>8857</v>
       </c>
       <c r="Q12">
-        <v>-9.8000000000000007</v>
+        <v>-499</v>
       </c>
       <c r="R12">
-        <v>41420</v>
+        <v>37766</v>
       </c>
       <c r="S12">
-        <v>41000</v>
+        <v>27338</v>
       </c>
       <c r="T12">
-        <v>8096</v>
+        <v>4475</v>
       </c>
       <c r="U12">
-        <v>741.4</v>
+        <v>703</v>
       </c>
       <c r="V12">
-        <v>780.3</v>
+        <v>599</v>
       </c>
       <c r="W12">
-        <v>-216</v>
+        <v>-102</v>
       </c>
       <c r="X12">
-        <v>-540.9</v>
+        <v>-588</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-37.200000000000003</v>
+        <v>-2</v>
       </c>
       <c r="AA12">
-        <v>366.3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41511</v>
+        <v>37857</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>459.3</v>
+        <v>227</v>
       </c>
       <c r="D13">
-        <v>4372.7</v>
+        <v>2518</v>
       </c>
       <c r="E13">
-        <v>1637.5</v>
+        <v>1047</v>
       </c>
       <c r="F13">
-        <v>1613</v>
+        <v>1044</v>
       </c>
       <c r="G13">
-        <v>4693.2</v>
+        <v>3310</v>
       </c>
       <c r="H13">
-        <v>22944.6</v>
+        <v>18392</v>
       </c>
       <c r="I13">
-        <v>1425.5</v>
+        <v>1301</v>
       </c>
       <c r="J13">
-        <v>5913.5</v>
+        <v>7523</v>
       </c>
       <c r="K13">
-        <v>1583.1</v>
+        <v>1364</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-719.9</v>
+        <v>-104</v>
       </c>
       <c r="N13">
-        <v>5462.9</v>
+        <v>3361</v>
       </c>
       <c r="O13">
-        <v>14654.9</v>
+        <v>13683</v>
       </c>
       <c r="P13">
-        <v>8244.6</v>
+        <v>8969</v>
       </c>
       <c r="Q13">
-        <v>17.5</v>
+        <v>-138</v>
       </c>
       <c r="R13">
-        <v>41511</v>
+        <v>37857</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8289.7000000000007</v>
+        <v>4709</v>
       </c>
       <c r="U13">
-        <v>758.9</v>
+        <v>565</v>
       </c>
       <c r="V13">
-        <v>381.1</v>
+        <v>-69</v>
       </c>
       <c r="W13">
-        <v>-247.5</v>
+        <v>-102</v>
       </c>
       <c r="X13">
-        <v>-237.3</v>
+        <v>44</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="AA13">
-        <v>459.3</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41602</v>
+        <v>37948</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>549.9</v>
+        <v>308</v>
       </c>
       <c r="D14">
-        <v>4875.7</v>
+        <v>3060</v>
       </c>
       <c r="E14">
-        <v>1725.5</v>
+        <v>1196</v>
       </c>
       <c r="F14">
-        <v>1761.7</v>
+        <v>1263</v>
       </c>
       <c r="G14">
-        <v>4775.8</v>
+        <v>3598</v>
       </c>
       <c r="H14">
-        <v>23152.1</v>
+        <v>18779</v>
       </c>
       <c r="I14">
-        <v>1424.1</v>
+        <v>1296</v>
       </c>
       <c r="J14">
-        <v>6740.6</v>
+        <v>7817</v>
       </c>
       <c r="K14">
-        <v>1051.3</v>
+        <v>956</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,81 +1888,81 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4990.1000000000004</v>
+        <v>3135</v>
       </c>
       <c r="O14">
-        <v>15055.2</v>
+        <v>13738</v>
       </c>
       <c r="P14">
-        <v>8644.7000000000007</v>
+        <v>9019</v>
       </c>
       <c r="Q14">
-        <v>15.3</v>
+        <v>130</v>
       </c>
       <c r="R14">
-        <v>41602</v>
+        <v>37948</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>8096.9</v>
+        <v>5041</v>
       </c>
       <c r="U14">
-        <v>774.2</v>
+        <v>695</v>
       </c>
       <c r="V14">
-        <v>627.79999999999995</v>
+        <v>319</v>
       </c>
       <c r="W14">
-        <v>-242.3</v>
+        <v>-103</v>
       </c>
       <c r="X14">
-        <v>-416.9</v>
+        <v>-52</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-57.9</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>549.9</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41693</v>
+        <v>38039</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>410.6</v>
+        <v>242</v>
       </c>
       <c r="D15">
-        <v>4377.3999999999996</v>
+        <v>2703</v>
       </c>
       <c r="E15">
-        <v>1648.1</v>
+        <v>1052</v>
       </c>
       <c r="F15">
-        <v>1512.7</v>
+        <v>1065</v>
       </c>
       <c r="G15">
-        <v>4557.6000000000004</v>
+        <v>3278</v>
       </c>
       <c r="H15">
-        <v>22925</v>
+        <v>18534</v>
       </c>
       <c r="I15">
-        <v>1360.3</v>
+        <v>1111</v>
       </c>
       <c r="J15">
-        <v>7179.6</v>
+        <v>7767</v>
       </c>
       <c r="K15">
-        <v>545.29999999999995</v>
+        <v>714</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4683.6000000000004</v>
+        <v>2662</v>
       </c>
       <c r="O15">
-        <v>15159.6</v>
+        <v>13195</v>
       </c>
       <c r="P15">
-        <v>8928.7000000000007</v>
+        <v>8703</v>
       </c>
       <c r="Q15">
-        <v>72.900000000000006</v>
+        <v>15</v>
       </c>
       <c r="R15">
-        <v>41693</v>
+        <v>38039</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7765.4</v>
+        <v>5339</v>
       </c>
       <c r="U15">
-        <v>847.1</v>
+        <v>710</v>
       </c>
       <c r="V15">
-        <v>715.3</v>
+        <v>501</v>
       </c>
       <c r="W15">
-        <v>-239.6</v>
+        <v>-104</v>
       </c>
       <c r="X15">
-        <v>-516</v>
+        <v>-401</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.9</v>
+        <v>45</v>
       </c>
       <c r="AA15">
-        <v>410.6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41784</v>
+        <v>38137</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>404.6</v>
+        <v>278</v>
       </c>
       <c r="D16">
-        <v>4283.8</v>
+        <v>2789</v>
       </c>
       <c r="E16">
-        <v>1483.6</v>
+        <v>1010</v>
       </c>
       <c r="F16">
-        <v>1482.4</v>
+        <v>1114</v>
       </c>
       <c r="G16">
-        <v>4393.5</v>
+        <v>3215</v>
       </c>
       <c r="H16">
-        <v>23145.7</v>
+        <v>18448</v>
       </c>
       <c r="I16">
-        <v>1611.3</v>
+        <v>1110</v>
       </c>
       <c r="J16">
-        <v>6423.5</v>
+        <v>7410</v>
       </c>
       <c r="K16">
-        <v>1111.7</v>
+        <v>583</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2054,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5423.5</v>
+        <v>2757</v>
       </c>
       <c r="O16">
-        <v>15156.2</v>
+        <v>12901</v>
       </c>
       <c r="P16">
-        <v>8785.7999999999993</v>
+        <v>8226</v>
       </c>
       <c r="Q16">
-        <v>20.2</v>
+        <v>41</v>
       </c>
       <c r="R16">
-        <v>41784</v>
+        <v>38137</v>
       </c>
       <c r="S16">
-        <v>43000</v>
+        <v>27580</v>
       </c>
       <c r="T16">
-        <v>7989.5</v>
+        <v>5547</v>
       </c>
       <c r="U16">
-        <v>867.3</v>
+        <v>751</v>
       </c>
       <c r="V16">
-        <v>816.8</v>
+        <v>710</v>
       </c>
       <c r="W16">
-        <v>-253.9</v>
+        <v>-104</v>
       </c>
       <c r="X16">
-        <v>-653.9</v>
+        <v>-534</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-8.9</v>
+        <v>41</v>
       </c>
       <c r="AA16">
-        <v>404.6</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41875</v>
+        <v>38228</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>345.2</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>4268.3999999999996</v>
+        <v>2585</v>
       </c>
       <c r="E17">
-        <v>1623.3</v>
+        <v>1053</v>
       </c>
       <c r="F17">
-        <v>1438.7</v>
+        <v>1009</v>
       </c>
       <c r="G17">
-        <v>4695.5</v>
+        <v>3124</v>
       </c>
       <c r="H17">
-        <v>23372.799999999999</v>
+        <v>18351</v>
       </c>
       <c r="I17">
-        <v>1571.3</v>
+        <v>1086</v>
       </c>
       <c r="J17">
-        <v>6669.1</v>
+        <v>7426</v>
       </c>
       <c r="K17">
-        <v>1795.4</v>
+        <v>456</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-393.4</v>
+        <v>-182</v>
       </c>
       <c r="N17">
-        <v>5793.1</v>
+        <v>2523</v>
       </c>
       <c r="O17">
-        <v>15730.9</v>
+        <v>12679</v>
       </c>
       <c r="P17">
-        <v>9319.9</v>
+        <v>8062</v>
       </c>
       <c r="Q17">
-        <v>-26.1</v>
+        <v>-271</v>
       </c>
       <c r="R17">
-        <v>41875</v>
+        <v>38228</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7641.9</v>
+        <v>5672</v>
       </c>
       <c r="U17">
-        <v>841.2</v>
+        <v>480</v>
       </c>
       <c r="V17">
-        <v>329.4</v>
+        <v>39</v>
       </c>
       <c r="W17">
-        <v>-254.4</v>
+        <v>-118</v>
       </c>
       <c r="X17">
-        <v>-153.1</v>
+        <v>-275</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-33.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="AA17">
-        <v>345.2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41966</v>
+        <v>38319</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>346.1</v>
+        <v>367</v>
       </c>
       <c r="D18">
-        <v>4712.2</v>
+        <v>3168</v>
       </c>
       <c r="E18">
-        <v>1705.8</v>
+        <v>1146</v>
       </c>
       <c r="F18">
-        <v>1638.4</v>
+        <v>1287</v>
       </c>
       <c r="G18">
-        <v>4986.3999999999996</v>
+        <v>3307</v>
       </c>
       <c r="H18">
-        <v>24203.7</v>
+        <v>18649</v>
       </c>
       <c r="I18">
-        <v>1656.7</v>
+        <v>1132</v>
       </c>
       <c r="J18">
-        <v>7713.1</v>
+        <v>7429</v>
       </c>
       <c r="K18">
-        <v>2071.4</v>
+        <v>347</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,81 +2220,81 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>6093.7</v>
+        <v>2355</v>
       </c>
       <c r="O18">
-        <v>17192.099999999999</v>
+        <v>12531</v>
       </c>
       <c r="P18">
-        <v>10535.2</v>
+        <v>7795</v>
       </c>
       <c r="Q18">
-        <v>53.3</v>
+        <v>81</v>
       </c>
       <c r="R18">
-        <v>41966</v>
+        <v>38319</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>7011.6</v>
+        <v>6118</v>
       </c>
       <c r="U18">
-        <v>894.5</v>
+        <v>561</v>
       </c>
       <c r="V18">
-        <v>533.79999999999995</v>
+        <v>484</v>
       </c>
       <c r="W18">
-        <v>-248.8</v>
+        <v>-113</v>
       </c>
       <c r="X18">
-        <v>522.79999999999995</v>
+        <v>-325</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="AA18">
-        <v>346.1</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42057</v>
+        <v>38410</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>343.2</v>
+        <v>230</v>
       </c>
       <c r="D19">
-        <v>4350.8999999999996</v>
+        <v>2772</v>
       </c>
       <c r="E19">
-        <v>1585.3</v>
+        <v>1048</v>
       </c>
       <c r="F19">
-        <v>1400.6</v>
+        <v>1077</v>
       </c>
       <c r="G19">
-        <v>4464.3999999999996</v>
+        <v>3132</v>
       </c>
       <c r="H19">
-        <v>23383.1</v>
+        <v>18460</v>
       </c>
       <c r="I19">
-        <v>1481.3</v>
+        <v>973</v>
       </c>
       <c r="J19">
-        <v>6642.6</v>
+        <v>6616</v>
       </c>
       <c r="K19">
-        <v>1897.9</v>
+        <v>782</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>6702.5</v>
+        <v>2673</v>
       </c>
       <c r="O19">
-        <v>16732.5</v>
+        <v>12035</v>
       </c>
       <c r="P19">
-        <v>10291.1</v>
+        <v>7427</v>
       </c>
       <c r="Q19">
-        <v>-110.3</v>
+        <v>36</v>
       </c>
       <c r="R19">
-        <v>42057</v>
+        <v>38410</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6650.6</v>
+        <v>6425</v>
       </c>
       <c r="U19">
-        <v>784.2</v>
+        <v>597</v>
       </c>
       <c r="V19">
-        <v>698.2</v>
+        <v>465</v>
       </c>
       <c r="W19">
-        <v>-248.1</v>
+        <v>-115</v>
       </c>
       <c r="X19">
-        <v>-516.20000000000005</v>
+        <v>-368</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-59.8</v>
+        <v>20</v>
       </c>
       <c r="AA19">
-        <v>343.2</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38501</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>186.8</v>
+        <v>460</v>
       </c>
       <c r="D20">
-        <v>4298.8</v>
+        <v>2719</v>
       </c>
       <c r="E20">
-        <v>1386.7</v>
+        <v>891</v>
       </c>
       <c r="F20">
-        <v>1544.3</v>
+        <v>1068</v>
       </c>
       <c r="G20">
-        <v>3685.6</v>
+        <v>3055</v>
       </c>
       <c r="H20">
-        <v>21832</v>
+        <v>18066</v>
       </c>
       <c r="I20">
-        <v>1684</v>
+        <v>1136</v>
       </c>
       <c r="J20">
-        <v>7575.3</v>
+        <v>4255</v>
       </c>
       <c r="K20">
-        <v>615.79999999999995</v>
+        <v>299</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,164 +2386,164 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4890.1000000000004</v>
+        <v>4184</v>
       </c>
       <c r="O20">
-        <v>15660.4</v>
+        <v>11257</v>
       </c>
       <c r="P20">
-        <v>9191.5</v>
+        <v>6192</v>
       </c>
       <c r="Q20">
-        <v>-450</v>
+        <v>-24</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38501</v>
       </c>
       <c r="S20">
-        <v>42000</v>
+        <v>27800</v>
       </c>
       <c r="T20">
-        <v>6171.6</v>
+        <v>6809</v>
       </c>
       <c r="U20">
-        <v>334.2</v>
+        <v>573</v>
       </c>
       <c r="V20">
-        <v>981.4</v>
+        <v>723</v>
       </c>
       <c r="W20">
-        <v>-266.39999999999998</v>
+        <v>-115</v>
       </c>
       <c r="X20">
-        <v>-1238.3</v>
+        <v>-1417</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-10.3</v>
+        <v>59</v>
       </c>
       <c r="AA20">
-        <v>186.8</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42246</v>
+        <v>38592</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>426.6</v>
+        <v>252</v>
       </c>
       <c r="D21">
-        <v>4207.8999999999996</v>
+        <v>2679</v>
       </c>
       <c r="E21">
-        <v>1531.5</v>
+        <v>1108</v>
       </c>
       <c r="F21">
-        <v>1589.5</v>
+        <v>993</v>
       </c>
       <c r="G21">
-        <v>4305.1000000000004</v>
+        <v>3394</v>
       </c>
       <c r="H21">
-        <v>22322.9</v>
+        <v>18376</v>
       </c>
       <c r="I21">
-        <v>1759.6</v>
+        <v>1192</v>
       </c>
       <c r="J21">
-        <v>7609.7</v>
+        <v>4240</v>
       </c>
       <c r="K21">
-        <v>823.7</v>
+        <v>871</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5299.9</v>
+        <v>5038</v>
       </c>
       <c r="O21">
-        <v>16184.3</v>
+        <v>12098</v>
       </c>
       <c r="P21">
-        <v>9433.7000000000007</v>
+        <v>6777</v>
       </c>
       <c r="Q21">
-        <v>116.4</v>
+        <v>36</v>
       </c>
       <c r="R21">
-        <v>42246</v>
+        <v>38592</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6138.6</v>
+        <v>6278</v>
       </c>
       <c r="U21">
-        <v>450.6</v>
+        <v>609</v>
       </c>
       <c r="V21">
-        <v>430.9</v>
+        <v>158</v>
       </c>
       <c r="W21">
-        <v>-266.5</v>
+        <v>-123</v>
       </c>
       <c r="X21">
-        <v>-156.9</v>
+        <v>-61</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="AA21">
-        <v>426.6</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42337</v>
+        <v>38683</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>529.5</v>
+        <v>370</v>
       </c>
       <c r="D22">
-        <v>4424.8999999999996</v>
+        <v>3293</v>
       </c>
       <c r="E22">
-        <v>1461.3</v>
+        <v>1167</v>
       </c>
       <c r="F22">
-        <v>1578.6</v>
+        <v>1203</v>
       </c>
       <c r="G22">
-        <v>4047.6</v>
+        <v>3520</v>
       </c>
       <c r="H22">
-        <v>21588.7</v>
+        <v>18460</v>
       </c>
       <c r="I22">
-        <v>1704.1</v>
+        <v>1235</v>
       </c>
       <c r="J22">
-        <v>7416.6</v>
+        <v>3995</v>
       </c>
       <c r="K22">
-        <v>306.7</v>
+        <v>2081</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4969.3999999999996</v>
+        <v>5154</v>
       </c>
       <c r="O22">
-        <v>15606.1</v>
+        <v>11930</v>
       </c>
       <c r="P22">
-        <v>8823.5</v>
+        <v>6665</v>
       </c>
       <c r="Q22">
-        <v>199.2</v>
+        <v>121</v>
       </c>
       <c r="R22">
-        <v>42337</v>
+        <v>38683</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>5982.6</v>
+        <v>6530</v>
       </c>
       <c r="U22">
-        <v>649.79999999999995</v>
+        <v>730</v>
       </c>
       <c r="V22">
-        <v>725.1</v>
+        <v>629</v>
       </c>
       <c r="W22">
-        <v>-264.39999999999998</v>
+        <v>-118</v>
       </c>
       <c r="X22">
-        <v>-1184.9000000000001</v>
+        <v>-434</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="AA22">
-        <v>529.5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42428</v>
+        <v>38774</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>361.7</v>
+        <v>246</v>
       </c>
       <c r="D23">
-        <v>4002.4</v>
+        <v>2877</v>
       </c>
       <c r="E23">
-        <v>1390.9</v>
+        <v>1088</v>
       </c>
       <c r="F23">
-        <v>1384.9</v>
+        <v>986</v>
       </c>
       <c r="G23">
-        <v>4011.3</v>
+        <v>3273</v>
       </c>
       <c r="H23">
-        <v>21631.599999999999</v>
+        <v>18215</v>
       </c>
       <c r="I23">
-        <v>1725.6</v>
+        <v>1126</v>
       </c>
       <c r="J23">
-        <v>7024.4</v>
+        <v>2502</v>
       </c>
       <c r="K23">
-        <v>640.29999999999995</v>
+        <v>1806</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5253.7</v>
+        <v>6261</v>
       </c>
       <c r="O23">
-        <v>15541.2</v>
+        <v>11542</v>
       </c>
       <c r="P23">
-        <v>8768.2000000000007</v>
+        <v>6387</v>
       </c>
       <c r="Q23">
-        <v>132.9</v>
+        <v>-77</v>
       </c>
       <c r="R23">
-        <v>42428</v>
+        <v>38774</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6090.4</v>
+        <v>6673</v>
       </c>
       <c r="U23">
-        <v>782.7</v>
+        <v>653</v>
       </c>
       <c r="V23">
-        <v>706.5</v>
+        <v>441</v>
       </c>
       <c r="W23">
-        <v>-263.7</v>
+        <v>-122</v>
       </c>
       <c r="X23">
-        <v>-378.7</v>
+        <v>-432</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>361.7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42519</v>
+        <v>38865</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>379.6</v>
+        <v>222</v>
       </c>
       <c r="D24">
-        <v>3927.9</v>
+        <v>2863</v>
       </c>
       <c r="E24">
-        <v>1360.8</v>
+        <v>912</v>
       </c>
       <c r="F24">
-        <v>1412.4</v>
+        <v>985</v>
       </c>
       <c r="G24">
-        <v>3937.2</v>
+        <v>3041</v>
       </c>
       <c r="H24">
-        <v>21712.3</v>
+        <v>18075</v>
       </c>
       <c r="I24">
-        <v>2046.5</v>
+        <v>673</v>
       </c>
       <c r="J24">
-        <v>7057.7</v>
+        <v>2415</v>
       </c>
       <c r="K24">
-        <v>269.8</v>
+        <v>1503</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,164 +2718,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5014.7</v>
+        <v>6138</v>
       </c>
       <c r="O24">
-        <v>15559.6</v>
+        <v>11167</v>
       </c>
       <c r="P24">
-        <v>8430.9</v>
+        <v>6049</v>
       </c>
       <c r="Q24">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="R24">
-        <v>42519</v>
+        <v>38865</v>
       </c>
       <c r="S24">
-        <v>39000</v>
+        <v>28100</v>
       </c>
       <c r="T24">
-        <v>6152.7</v>
+        <v>6908</v>
       </c>
       <c r="U24">
-        <v>763.7</v>
+        <v>647</v>
       </c>
       <c r="V24">
-        <v>767.3</v>
+        <v>620</v>
       </c>
       <c r="W24">
-        <v>-277.10000000000002</v>
+        <v>-122</v>
       </c>
       <c r="X24">
-        <v>-565.1</v>
+        <v>-478</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.2</v>
+        <v>-3</v>
       </c>
       <c r="AA24">
-        <v>379.6</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42610</v>
+        <v>38956</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>409</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="D25">
-        <v>3907.9</v>
+        <v>2860.4</v>
       </c>
       <c r="E25">
-        <v>1446.1</v>
+        <v>1165</v>
       </c>
       <c r="F25">
-        <v>1444.3</v>
+        <v>1063.7</v>
       </c>
       <c r="G25">
-        <v>4193</v>
+        <v>3383</v>
       </c>
       <c r="H25">
-        <v>21913.1</v>
+        <v>18586</v>
       </c>
       <c r="I25">
-        <v>1944.8</v>
+        <v>860</v>
       </c>
       <c r="J25">
-        <v>7078</v>
+        <v>2406</v>
       </c>
       <c r="K25">
-        <v>690.5</v>
+        <v>2221</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-66.7</v>
       </c>
       <c r="N25">
-        <v>5215.1000000000004</v>
+        <v>6941</v>
       </c>
       <c r="O25">
-        <v>15783.5</v>
+        <v>12119</v>
       </c>
       <c r="P25">
-        <v>8871.9</v>
+        <v>6709</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>-222.7</v>
       </c>
       <c r="R25">
-        <v>42610</v>
+        <v>38956</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6129.6</v>
+        <v>6467</v>
       </c>
       <c r="U25">
-        <v>765.7</v>
+        <v>425</v>
       </c>
       <c r="V25">
-        <v>370.8</v>
+        <v>110.6</v>
       </c>
       <c r="W25">
-        <v>-290.89999999999998</v>
+        <v>-125.7</v>
       </c>
       <c r="X25">
-        <v>-238.2</v>
+        <v>-93.2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>8.1</v>
+        <v>-126.7</v>
       </c>
       <c r="AA25">
-        <v>409</v>
+        <v>266.89999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42701</v>
+        <v>39047</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>481.8</v>
+        <v>385.4</v>
       </c>
       <c r="D26">
-        <v>4112.1000000000004</v>
+        <v>3466.6</v>
       </c>
       <c r="E26">
-        <v>1382.7</v>
+        <v>1291</v>
       </c>
       <c r="F26">
-        <v>1543.4</v>
+        <v>1279.5999999999999</v>
       </c>
       <c r="G26">
-        <v>4111.5</v>
+        <v>3499</v>
       </c>
       <c r="H26">
-        <v>21602.1</v>
+        <v>18763</v>
       </c>
       <c r="I26">
-        <v>1938.3</v>
+        <v>738</v>
       </c>
       <c r="J26">
-        <v>6542</v>
+        <v>2241</v>
       </c>
       <c r="K26">
-        <v>1421.7</v>
+        <v>2678</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6244.4</v>
+        <v>7056</v>
       </c>
       <c r="O26">
-        <v>16274.6</v>
+        <v>12080</v>
       </c>
       <c r="P26">
-        <v>9471.2999999999993</v>
+        <v>6658</v>
       </c>
       <c r="Q26">
-        <v>44</v>
+        <v>67.2</v>
       </c>
       <c r="R26">
-        <v>42701</v>
+        <v>39047</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>5327.5</v>
+        <v>6683</v>
       </c>
       <c r="U26">
-        <v>809.7</v>
+        <v>492</v>
       </c>
       <c r="V26">
-        <v>707.9</v>
+        <v>454.6</v>
       </c>
       <c r="W26">
-        <v>-284.60000000000002</v>
+        <v>-121.7</v>
       </c>
       <c r="X26">
-        <v>-481.8</v>
+        <v>-318.8</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-15.8</v>
+        <v>15.2</v>
       </c>
       <c r="AA26">
-        <v>481.8</v>
+        <v>385.4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42792</v>
+        <v>39138</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>357.8</v>
+        <v>267.5</v>
       </c>
       <c r="D27">
-        <v>3793.2</v>
+        <v>3053.6</v>
       </c>
       <c r="E27">
-        <v>1427.5</v>
+        <v>1208</v>
       </c>
       <c r="F27">
-        <v>1335.6</v>
+        <v>1071.7</v>
       </c>
       <c r="G27">
-        <v>4128</v>
+        <v>3268</v>
       </c>
       <c r="H27">
-        <v>21670.3</v>
+        <v>18666</v>
       </c>
       <c r="I27">
-        <v>1855.3</v>
+        <v>658</v>
       </c>
       <c r="J27">
-        <v>7176.4</v>
+        <v>3165</v>
       </c>
       <c r="K27">
-        <v>1942</v>
+        <v>2177</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>5743.5</v>
+        <v>5649</v>
       </c>
       <c r="O27">
-        <v>16397.599999999999</v>
+        <v>11567</v>
       </c>
       <c r="P27">
-        <v>9723.1</v>
+        <v>6187</v>
       </c>
       <c r="Q27">
-        <v>89.4</v>
+        <v>-16.2</v>
       </c>
       <c r="R27">
-        <v>42792</v>
+        <v>39138</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5272.7</v>
+        <v>7099</v>
       </c>
       <c r="U27">
-        <v>899.1</v>
+        <v>476</v>
       </c>
       <c r="V27">
-        <v>580.29999999999995</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="W27">
-        <v>-280.8</v>
+        <v>-129.30000000000001</v>
       </c>
       <c r="X27">
-        <v>-363.1</v>
+        <v>-497.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>12.5</v>
+        <v>3.7</v>
       </c>
       <c r="AA27">
-        <v>357.8</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42883</v>
+        <v>39229</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>408.9</v>
+        <v>224.1</v>
       </c>
       <c r="D28">
-        <v>3806.6</v>
+        <v>3060.9</v>
       </c>
       <c r="E28">
-        <v>1430.1</v>
+        <v>952.9</v>
       </c>
       <c r="F28">
-        <v>1325.9</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="G28">
-        <v>4061.4</v>
+        <v>3053.7</v>
       </c>
       <c r="H28">
-        <v>21812.6</v>
+        <v>18183.7</v>
       </c>
       <c r="I28">
-        <v>2119.8000000000002</v>
+        <v>777.9</v>
       </c>
       <c r="J28">
-        <v>7642.9</v>
+        <v>3217.7</v>
       </c>
       <c r="K28">
-        <v>1234.0999999999999</v>
+        <v>1254.4000000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>5330.8</v>
+        <v>5845.1</v>
       </c>
       <c r="O28">
-        <v>16216.2</v>
+        <v>11725.8</v>
       </c>
       <c r="P28">
-        <v>9481.7000000000007</v>
+        <v>6206.1</v>
       </c>
       <c r="Q28">
-        <v>-133</v>
+        <v>-58.6</v>
       </c>
       <c r="R28">
-        <v>42883</v>
+        <v>39229</v>
       </c>
       <c r="S28">
-        <v>38000</v>
+        <v>28500</v>
       </c>
       <c r="T28">
-        <v>5596.4</v>
+        <v>6457.9</v>
       </c>
       <c r="U28">
-        <v>766.1</v>
+        <v>417.1</v>
       </c>
       <c r="V28">
-        <v>756.2</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="W28">
-        <v>-278.8</v>
+        <v>-128.5</v>
       </c>
       <c r="X28">
-        <v>-664.3</v>
+        <v>-488.7</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA28">
-        <v>408.9</v>
+        <v>224.1</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42974</v>
+        <v>39320</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>404.7</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="D29">
-        <v>3769.2</v>
+        <v>3072</v>
       </c>
       <c r="E29">
-        <v>1546.5</v>
+        <v>1064</v>
       </c>
       <c r="F29">
-        <v>1326.8</v>
+        <v>1156.2</v>
       </c>
       <c r="G29">
-        <v>4338.5</v>
+        <v>3478.1</v>
       </c>
       <c r="H29">
-        <v>22209.599999999999</v>
+        <v>18477.900000000001</v>
       </c>
       <c r="I29">
-        <v>2172.9</v>
+        <v>893.6</v>
       </c>
       <c r="J29">
-        <v>7822.7</v>
+        <v>3003.8</v>
       </c>
       <c r="K29">
-        <v>1660.3</v>
+        <v>3560.6</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>5889.9</v>
+        <v>7505.4</v>
       </c>
       <c r="O29">
-        <v>16959.2</v>
+        <v>13776.9</v>
       </c>
       <c r="P29">
-        <v>10087.700000000001</v>
+        <v>8510.9</v>
       </c>
       <c r="Q29">
-        <v>54.7</v>
+        <v>-6.9</v>
       </c>
       <c r="R29">
-        <v>42974</v>
+        <v>39320</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5250.4</v>
+        <v>4701</v>
       </c>
       <c r="U29">
-        <v>820.8</v>
+        <v>410.2</v>
       </c>
       <c r="V29">
-        <v>590.5</v>
+        <v>21.2</v>
       </c>
       <c r="W29">
-        <v>-284.3</v>
+        <v>-132.1</v>
       </c>
       <c r="X29">
-        <v>-451.3</v>
+        <v>23.8</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-6.6</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="AA29">
-        <v>404.7</v>
+        <v>288.89999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43065</v>
+        <v>39411</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>430.5</v>
+        <v>390.5</v>
       </c>
       <c r="D30">
-        <v>4198.7</v>
+        <v>3703.4</v>
       </c>
       <c r="E30">
-        <v>1510.5</v>
+        <v>1221.8</v>
       </c>
       <c r="F30">
-        <v>1451</v>
+        <v>1348.2</v>
       </c>
       <c r="G30">
-        <v>4334.1000000000004</v>
+        <v>3843.9</v>
       </c>
       <c r="H30">
-        <v>22191.5</v>
+        <v>19081.5</v>
       </c>
       <c r="I30">
-        <v>2467</v>
+        <v>786.1</v>
       </c>
       <c r="J30">
-        <v>8228.2999999999993</v>
+        <v>3599.1</v>
       </c>
       <c r="K30">
-        <v>1298</v>
+        <v>2046</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>5349.5</v>
+        <v>6223.1</v>
       </c>
       <c r="O30">
-        <v>16808.400000000001</v>
+        <v>13159.7</v>
       </c>
       <c r="P30">
-        <v>9726.7999999999993</v>
+        <v>7694.3</v>
       </c>
       <c r="Q30">
-        <v>141.30000000000001</v>
+        <v>119.9</v>
       </c>
       <c r="R30">
-        <v>43065</v>
+        <v>39411</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5383.1</v>
+        <v>5921.8</v>
       </c>
       <c r="U30">
-        <v>962.1</v>
+        <v>530.1</v>
       </c>
       <c r="V30">
-        <v>976.3</v>
+        <v>422.5</v>
       </c>
       <c r="W30">
-        <v>-280.89999999999998</v>
+        <v>-127.3</v>
       </c>
       <c r="X30">
-        <v>-679.7</v>
+        <v>-214.7</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA30">
-        <v>430.5</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43156</v>
+        <v>39502</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>941.4</v>
+        <v>430.1</v>
       </c>
       <c r="D31">
-        <v>3882.3</v>
+        <v>3405.6</v>
       </c>
       <c r="E31">
-        <v>1496.5</v>
+        <v>1148.8</v>
       </c>
       <c r="F31">
-        <v>1259.5999999999999</v>
+        <v>1354.2</v>
       </c>
       <c r="G31">
-        <v>4277.1000000000004</v>
+        <v>3958.3</v>
       </c>
       <c r="H31">
-        <v>22240.6</v>
+        <v>19266.8</v>
       </c>
       <c r="I31">
-        <v>2505.6999999999998</v>
+        <v>789</v>
       </c>
       <c r="J31">
-        <v>7163.6</v>
+        <v>3600.7</v>
       </c>
       <c r="K31">
-        <v>1210.8</v>
+        <v>2434.5</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>6209.6</v>
+        <v>6141.1</v>
       </c>
       <c r="O31">
-        <v>16088.4</v>
+        <v>13097.7</v>
       </c>
       <c r="P31">
-        <v>9624.9</v>
+        <v>7613.2</v>
       </c>
       <c r="Q31">
-        <v>-9</v>
+        <v>90.3</v>
       </c>
       <c r="R31">
-        <v>43156</v>
+        <v>39502</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6152.2</v>
+        <v>6169.1</v>
       </c>
       <c r="U31">
-        <v>953.1</v>
+        <v>620.4</v>
       </c>
       <c r="V31">
-        <v>568.5</v>
+        <v>470.2</v>
       </c>
       <c r="W31">
-        <v>-281.3</v>
+        <v>-135.6</v>
       </c>
       <c r="X31">
-        <v>-438.7</v>
+        <v>-256</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-7.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA31">
-        <v>941.4</v>
+        <v>430.1</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43247</v>
+        <v>39593</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>354.4</v>
+        <v>185.2</v>
       </c>
       <c r="D32">
-        <v>3890.2</v>
+        <v>3471.1</v>
       </c>
       <c r="E32">
-        <v>1684.2</v>
+        <v>1081.5999999999999</v>
       </c>
       <c r="F32">
-        <v>1423.5</v>
+        <v>1050.7</v>
       </c>
       <c r="G32">
-        <v>4123.7</v>
+        <v>3620</v>
       </c>
       <c r="H32">
-        <v>30624</v>
+        <v>19041.599999999999</v>
       </c>
       <c r="I32">
-        <v>2746.2</v>
+        <v>937.3</v>
       </c>
       <c r="J32">
-        <v>12668.7</v>
+        <v>4348.7</v>
       </c>
       <c r="K32">
-        <v>1549.8</v>
+        <v>2208.8000000000002</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,164 +3382,164 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>7341.9</v>
+        <v>4856.3</v>
       </c>
       <c r="O32">
-        <v>23355.4</v>
+        <v>12583.5</v>
       </c>
       <c r="P32">
-        <v>15818.6</v>
+        <v>6999.5</v>
       </c>
       <c r="Q32">
-        <v>-554.1</v>
+        <v>40.6</v>
       </c>
       <c r="R32">
-        <v>43247</v>
+        <v>39593</v>
       </c>
       <c r="S32">
-        <v>40000</v>
+        <v>29500</v>
       </c>
       <c r="T32">
-        <v>7268.6</v>
+        <v>6458.1</v>
       </c>
       <c r="U32">
-        <v>399</v>
+        <v>661</v>
       </c>
       <c r="V32">
-        <v>705.7</v>
+        <v>816</v>
       </c>
       <c r="W32">
-        <v>-293.2</v>
+        <v>-134.69999999999999</v>
       </c>
       <c r="X32">
-        <v>7015.2</v>
+        <v>-646.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-2.1</v>
+        <v>59.3</v>
       </c>
       <c r="AA32">
-        <v>354.4</v>
+        <v>185.2</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43338</v>
+        <v>39684</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>392.3</v>
+        <v>278.5</v>
       </c>
       <c r="D33">
-        <v>4094</v>
+        <v>3497.3</v>
       </c>
       <c r="E33">
-        <v>1709.1</v>
+        <v>1166.7</v>
       </c>
       <c r="F33">
-        <v>1397.2</v>
+        <v>1191.7</v>
       </c>
       <c r="G33">
-        <v>4185.5</v>
+        <v>3826.2</v>
       </c>
       <c r="H33">
-        <v>30554.799999999999</v>
+        <v>19162</v>
       </c>
       <c r="I33">
-        <v>2723.8</v>
+        <v>886.5</v>
       </c>
       <c r="J33">
-        <v>12665.1</v>
+        <v>5043.2</v>
       </c>
       <c r="K33">
-        <v>1349.4</v>
+        <v>2104.1999999999998</v>
       </c>
       <c r="L33">
-        <v>-189.8</v>
+        <v>-103.2</v>
       </c>
       <c r="M33">
-        <v>-0.2</v>
+        <v>-231.6</v>
       </c>
       <c r="N33">
-        <v>7187.8</v>
+        <v>4465</v>
       </c>
       <c r="O33">
-        <v>23207.4</v>
+        <v>12853.2</v>
       </c>
       <c r="P33">
-        <v>15613.7</v>
+        <v>7362.7</v>
       </c>
       <c r="Q33">
-        <v>33.9</v>
+        <v>-6.1</v>
       </c>
       <c r="R33">
-        <v>43338</v>
+        <v>39684</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7347.4</v>
+        <v>6308.8</v>
       </c>
       <c r="U33">
-        <v>432.9</v>
+        <v>654.9</v>
       </c>
       <c r="V33">
-        <v>607.4</v>
+        <v>225.9</v>
       </c>
       <c r="W33">
-        <v>-294.2</v>
+        <v>-147.5</v>
       </c>
       <c r="X33">
-        <v>-423</v>
+        <v>-72.3</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA33">
-        <v>392.3</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43429</v>
+        <v>39775</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>343.4</v>
+        <v>378.2</v>
       </c>
       <c r="D34">
-        <v>4411.2</v>
+        <v>4010.8</v>
       </c>
       <c r="E34">
-        <v>1716.8</v>
+        <v>1234.2</v>
       </c>
       <c r="F34">
-        <v>1509.7</v>
+        <v>1219.5999999999999</v>
       </c>
       <c r="G34">
-        <v>4233.8</v>
+        <v>4018</v>
       </c>
       <c r="H34">
-        <v>30384</v>
+        <v>19109.7</v>
       </c>
       <c r="I34">
-        <v>2823.9</v>
+        <v>840.2</v>
       </c>
       <c r="J34">
-        <v>12208.6</v>
+        <v>5105.5</v>
       </c>
       <c r="K34">
-        <v>1056.3</v>
+        <v>2698.9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7298.1</v>
+        <v>4984</v>
       </c>
       <c r="O34">
-        <v>22857</v>
+        <v>13572.2</v>
       </c>
       <c r="P34">
-        <v>15255.5</v>
+        <v>7918</v>
       </c>
       <c r="Q34">
-        <v>99.8</v>
+        <v>-15.3</v>
       </c>
       <c r="R34">
-        <v>43429</v>
+        <v>39775</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>7527</v>
+        <v>5537.5</v>
       </c>
       <c r="U34">
-        <v>532.70000000000005</v>
+        <v>639.6</v>
       </c>
       <c r="V34">
-        <v>789.1</v>
+        <v>137.9</v>
       </c>
       <c r="W34">
-        <v>-295</v>
+        <v>-146.4</v>
       </c>
       <c r="X34">
-        <v>-524.29999999999995</v>
+        <v>-131.9</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-1.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA34">
-        <v>343.4</v>
+        <v>378.2</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43520</v>
+        <v>39866</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>446.8</v>
+        <v>288.89999999999998</v>
       </c>
       <c r="D35">
-        <v>4198.3</v>
+        <v>3537.4</v>
       </c>
       <c r="E35">
-        <v>1704.1</v>
+        <v>1136</v>
       </c>
       <c r="F35">
-        <v>1443.2</v>
+        <v>1277.5</v>
       </c>
       <c r="G35">
-        <v>4169.8</v>
+        <v>3888.9</v>
       </c>
       <c r="H35">
-        <v>30285.8</v>
+        <v>19078.7</v>
       </c>
       <c r="I35">
-        <v>2750.5</v>
+        <v>716.1</v>
       </c>
       <c r="J35">
-        <v>11642.6</v>
+        <v>5755.4</v>
       </c>
       <c r="K35">
-        <v>1971.3</v>
+        <v>1413.8</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>7516.6</v>
+        <v>4028.1</v>
       </c>
       <c r="O35">
-        <v>22487.5</v>
+        <v>13299.3</v>
       </c>
       <c r="P35">
-        <v>15021.1</v>
+        <v>7687.5</v>
       </c>
       <c r="Q35">
-        <v>14.4</v>
+        <v>297.7</v>
       </c>
       <c r="R35">
-        <v>43520</v>
+        <v>39866</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7798.3</v>
+        <v>5779.4</v>
       </c>
       <c r="U35">
-        <v>547.1</v>
+        <v>937.3</v>
       </c>
       <c r="V35">
-        <v>631.1</v>
+        <v>766.1</v>
       </c>
       <c r="W35">
-        <v>-294.5</v>
+        <v>-143.9</v>
       </c>
       <c r="X35">
-        <v>-510.7</v>
+        <v>-381.7</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-16.7</v>
       </c>
       <c r="AA35">
-        <v>446.8</v>
+        <v>288.89999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43611</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>570.20000000000005</v>
+        <v>358.8</v>
       </c>
       <c r="D36">
-        <v>4161.7</v>
+        <v>3645.7</v>
       </c>
       <c r="E36">
-        <v>1679.7</v>
+        <v>953.4</v>
       </c>
       <c r="F36">
-        <v>1470.9</v>
+        <v>1544.6</v>
       </c>
       <c r="G36">
-        <v>4186.5</v>
+        <v>3534.9</v>
       </c>
       <c r="H36">
-        <v>30111.200000000001</v>
+        <v>17874.8</v>
       </c>
       <c r="I36">
-        <v>2854.1</v>
+        <v>803.4</v>
       </c>
       <c r="J36">
-        <v>11624.8</v>
+        <v>6013.5</v>
       </c>
       <c r="K36">
-        <v>1468.7</v>
+        <v>812.2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,164 +3714,164 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>7087.1</v>
+        <v>3606</v>
       </c>
       <c r="O36">
-        <v>22191.8</v>
+        <v>12458.3</v>
       </c>
       <c r="P36">
-        <v>14490</v>
+        <v>7334.2</v>
       </c>
       <c r="Q36">
-        <v>-97.1</v>
+        <v>-187.5</v>
       </c>
       <c r="R36">
-        <v>43611</v>
+        <v>39964</v>
       </c>
       <c r="S36">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="T36">
-        <v>7919.4</v>
+        <v>5416.5</v>
       </c>
       <c r="U36">
-        <v>450</v>
+        <v>749.8</v>
       </c>
       <c r="V36">
-        <v>779.4</v>
+        <v>698.3</v>
       </c>
       <c r="W36">
-        <v>-298</v>
+        <v>-141.69999999999999</v>
       </c>
       <c r="X36">
-        <v>-718.4</v>
+        <v>-818.6</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1.6</v>
+        <v>12.7</v>
       </c>
       <c r="AA36">
-        <v>570.20000000000005</v>
+        <v>358.8</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43702</v>
+        <v>40055</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>520.6</v>
+        <v>420.6</v>
       </c>
       <c r="D37">
-        <v>4002.5</v>
+        <v>3482.4</v>
       </c>
       <c r="E37">
-        <v>1710.5</v>
+        <v>1139</v>
       </c>
       <c r="F37">
-        <v>1395.6</v>
+        <v>1440.8</v>
       </c>
       <c r="G37">
-        <v>4261.3999999999996</v>
+        <v>3873.5</v>
       </c>
       <c r="H37">
-        <v>30313.200000000001</v>
+        <v>18190.099999999999</v>
       </c>
       <c r="I37">
-        <v>2786.7</v>
+        <v>792.1</v>
       </c>
       <c r="J37">
-        <v>11619.8</v>
+        <v>5753.9</v>
       </c>
       <c r="K37">
-        <v>1296.0999999999999</v>
+        <v>914.8</v>
       </c>
       <c r="L37">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-0.1</v>
+        <v>-2.1</v>
       </c>
       <c r="N37">
-        <v>6903.4</v>
+        <v>3712.3</v>
       </c>
       <c r="O37">
-        <v>22069.8</v>
+        <v>12551.5</v>
       </c>
       <c r="P37">
-        <v>14729.1</v>
+        <v>7177.2</v>
       </c>
       <c r="Q37">
-        <v>54.8</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="R37">
-        <v>43702</v>
+        <v>40055</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8243.4</v>
+        <v>5638.6</v>
       </c>
       <c r="U37">
-        <v>504.8</v>
+        <v>711.6</v>
       </c>
       <c r="V37">
-        <v>572.1</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="W37">
-        <v>-298.5</v>
+        <v>-156.19999999999999</v>
       </c>
       <c r="X37">
-        <v>-428.6</v>
+        <v>-200.7</v>
       </c>
       <c r="Y37">
-        <v>318.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-12.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>520.6</v>
+        <v>420.6</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43793</v>
+        <v>40146</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>580.79999999999995</v>
+        <v>565.5</v>
       </c>
       <c r="D38">
-        <v>4420.8</v>
+        <v>4034.7</v>
       </c>
       <c r="E38">
-        <v>1772.7</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="F38">
-        <v>1581.4</v>
+        <v>1728.3</v>
       </c>
       <c r="G38">
-        <v>4478.8999999999996</v>
+        <v>4127.8</v>
       </c>
       <c r="H38">
-        <v>30452.400000000001</v>
+        <v>18561.3</v>
       </c>
       <c r="I38">
-        <v>3063</v>
+        <v>717.6</v>
       </c>
       <c r="J38">
-        <v>10953.1</v>
+        <v>5648</v>
       </c>
       <c r="K38">
-        <v>1345.1</v>
+        <v>444.4</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>7362.3</v>
+        <v>3459.5</v>
       </c>
       <c r="O38">
-        <v>21886.7</v>
+        <v>12227.6</v>
       </c>
       <c r="P38">
-        <v>14252.5</v>
+        <v>6699.7</v>
       </c>
       <c r="Q38">
-        <v>55.4</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="R38">
-        <v>43793</v>
+        <v>40146</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>8565.7000000000007</v>
+        <v>6333.7</v>
       </c>
       <c r="U38">
-        <v>560.20000000000005</v>
+        <v>858.4</v>
       </c>
       <c r="V38">
-        <v>884.5</v>
+        <v>712</v>
       </c>
       <c r="W38">
-        <v>-297.8</v>
+        <v>-156.69999999999999</v>
       </c>
       <c r="X38">
-        <v>-751.2</v>
+        <v>-490.4</v>
       </c>
       <c r="Y38">
-        <v>308.5</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-1.8</v>
+        <v>-0.8</v>
       </c>
       <c r="AA38">
-        <v>580.79999999999995</v>
+        <v>565.5</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43884</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>454.1</v>
+        <v>332.5</v>
       </c>
       <c r="D39">
-        <v>4180.3</v>
+        <v>3589.3</v>
       </c>
       <c r="E39">
-        <v>1731.1</v>
+        <v>1180.2</v>
       </c>
       <c r="F39">
-        <v>1410.2</v>
+        <v>1359.8</v>
       </c>
       <c r="G39">
-        <v>4308.5</v>
+        <v>3677.1</v>
       </c>
       <c r="H39">
-        <v>30248.7</v>
+        <v>18216.2</v>
       </c>
       <c r="I39">
-        <v>2931.5</v>
+        <v>690.5</v>
       </c>
       <c r="J39">
-        <v>11589.6</v>
+        <v>5671.6</v>
       </c>
       <c r="K39">
-        <v>1174.5999999999999</v>
+        <v>581.1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>6696.6</v>
+        <v>2986.4</v>
       </c>
       <c r="O39">
-        <v>21850</v>
+        <v>11739.1</v>
       </c>
       <c r="P39">
-        <v>14038.5</v>
+        <v>6360.1</v>
       </c>
       <c r="Q39">
-        <v>46.7</v>
+        <v>-167.1</v>
       </c>
       <c r="R39">
-        <v>43884</v>
+        <v>40237</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8398.7000000000007</v>
+        <v>6477.1</v>
       </c>
       <c r="U39">
-        <v>606.9</v>
+        <v>691.3</v>
       </c>
       <c r="V39">
-        <v>703.2</v>
+        <v>571.1</v>
       </c>
       <c r="W39">
-        <v>-299.10000000000002</v>
+        <v>-165.4</v>
       </c>
       <c r="X39">
-        <v>-511.6</v>
+        <v>-443.3</v>
       </c>
       <c r="Y39">
-        <v>300.8</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-26.6</v>
+        <v>-121.8</v>
       </c>
       <c r="AA39">
-        <v>454.1</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40328</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>625.70000000000005</v>
+        <v>211.9</v>
       </c>
       <c r="D40">
-        <v>5023</v>
+        <v>3529.2</v>
       </c>
       <c r="E40">
-        <v>1615.1</v>
+        <v>1041.5999999999999</v>
       </c>
       <c r="F40">
-        <v>1770</v>
+        <v>1271.3</v>
       </c>
       <c r="G40">
-        <v>5121.3</v>
+        <v>3480</v>
       </c>
       <c r="H40">
-        <v>30806.7</v>
+        <v>17678.900000000001</v>
       </c>
       <c r="I40">
-        <v>3247.7</v>
+        <v>849.5</v>
       </c>
       <c r="J40">
-        <v>10928.9</v>
+        <v>5448.7</v>
       </c>
       <c r="K40">
-        <v>279</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>7491.5</v>
+        <v>3769.1</v>
       </c>
       <c r="O40">
-        <v>21912.6</v>
+        <v>12030.9</v>
       </c>
       <c r="P40">
-        <v>13918.5</v>
+        <v>6606.1</v>
       </c>
       <c r="Q40">
-        <v>1070.9000000000001</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40328</v>
       </c>
       <c r="S40">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="T40">
-        <v>8894.1</v>
+        <v>5648</v>
       </c>
       <c r="U40">
-        <v>1677.8</v>
+        <v>673.2</v>
       </c>
       <c r="V40">
-        <v>1516.4</v>
+        <v>623</v>
       </c>
       <c r="W40">
-        <v>-300.39999999999998</v>
+        <v>-165.4</v>
       </c>
       <c r="X40">
-        <v>-250.1</v>
+        <v>-369.4</v>
       </c>
       <c r="Y40">
-        <v>277.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-7.1</v>
+        <v>-8.9</v>
       </c>
       <c r="AA40">
-        <v>625.70000000000005</v>
+        <v>211.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44073</v>
+        <v>40419</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>638.9</v>
+        <v>472.1</v>
       </c>
       <c r="D41">
-        <v>4364</v>
+        <v>3533.1</v>
       </c>
       <c r="E41">
-        <v>1633</v>
+        <v>1173.0999999999999</v>
       </c>
       <c r="F41">
-        <v>1590.9</v>
+        <v>1524.3</v>
       </c>
       <c r="G41">
-        <v>5354.8</v>
+        <v>3953.8</v>
       </c>
       <c r="H41">
-        <v>31262.2</v>
+        <v>18210.5</v>
       </c>
       <c r="I41">
-        <v>3184.4</v>
+        <v>888</v>
       </c>
       <c r="J41">
-        <v>10832.9</v>
+        <v>5771.6</v>
       </c>
       <c r="K41">
-        <v>162.69999999999999</v>
+        <v>1349.8</v>
       </c>
       <c r="L41">
-        <v>-120.9</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-555.1</v>
+        <v>-1.8</v>
       </c>
       <c r="N41">
-        <v>7612.7</v>
+        <v>4091.5</v>
       </c>
       <c r="O41">
-        <v>21919.4</v>
+        <v>12839.1</v>
       </c>
       <c r="P41">
-        <v>13621.3</v>
+        <v>7228.7</v>
       </c>
       <c r="Q41">
-        <v>118.9</v>
+        <v>23.8</v>
       </c>
       <c r="R41">
-        <v>44073</v>
+        <v>40419</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>9342.7999999999993</v>
+        <v>5371.4</v>
       </c>
       <c r="U41">
-        <v>1796.7</v>
+        <v>697</v>
       </c>
       <c r="V41">
-        <v>583.6</v>
+        <v>177.6</v>
       </c>
       <c r="W41">
-        <v>-302.8</v>
+        <v>-184.1</v>
       </c>
       <c r="X41">
-        <v>-372.7</v>
+        <v>-57.3</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-0.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AA41">
-        <v>638.9</v>
+        <v>472.1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44164</v>
+        <v>40510</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>613.9</v>
+      </c>
+      <c r="D42">
+        <v>4066.6</v>
+      </c>
+      <c r="E42">
+        <v>1299.0999999999999</v>
+      </c>
+      <c r="F42">
+        <v>1634</v>
+      </c>
+      <c r="G42">
+        <v>4016.6</v>
+      </c>
+      <c r="H42">
+        <v>18378.5</v>
+      </c>
+      <c r="I42">
+        <v>826.7</v>
+      </c>
+      <c r="J42">
+        <v>5864.1</v>
+      </c>
+      <c r="K42">
+        <v>1169.9000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3733.6</v>
+      </c>
+      <c r="O42">
+        <v>12493.7</v>
+      </c>
+      <c r="P42">
+        <v>7045.7</v>
+      </c>
+      <c r="Q42">
+        <v>-130.69999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40510</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>5884.8</v>
+      </c>
+      <c r="U42">
+        <v>566.29999999999995</v>
+      </c>
+      <c r="V42">
+        <v>421.9</v>
+      </c>
+      <c r="W42">
+        <v>-182.2</v>
+      </c>
+      <c r="X42">
+        <v>-425.4</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>613.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>392.1</v>
+      </c>
+      <c r="D43">
+        <v>3646.2</v>
+      </c>
+      <c r="E43">
+        <v>1185.9000000000001</v>
+      </c>
+      <c r="F43">
+        <v>1430.8</v>
+      </c>
+      <c r="G43">
+        <v>3842.9</v>
+      </c>
+      <c r="H43">
+        <v>18281.5</v>
+      </c>
+      <c r="I43">
+        <v>830.1</v>
+      </c>
+      <c r="J43">
+        <v>4844.2</v>
+      </c>
+      <c r="K43">
+        <v>974.5</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4511.3</v>
+      </c>
+      <c r="O43">
+        <v>12169.3</v>
+      </c>
+      <c r="P43">
+        <v>6849.9</v>
+      </c>
+      <c r="Q43">
+        <v>-26</v>
+      </c>
+      <c r="R43">
+        <v>40601</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>6112.2</v>
+      </c>
+      <c r="U43">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="V43">
+        <v>648.6</v>
+      </c>
+      <c r="W43">
+        <v>-181.2</v>
+      </c>
+      <c r="X43">
+        <v>-489.3</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.1</v>
+      </c>
+      <c r="AA43">
+        <v>392.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40692</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>320.2</v>
+      </c>
+      <c r="D44">
+        <v>3634.3</v>
+      </c>
+      <c r="E44">
+        <v>1162.3</v>
+      </c>
+      <c r="F44">
+        <v>1364.4</v>
+      </c>
+      <c r="G44">
+        <v>3902</v>
+      </c>
+      <c r="H44">
+        <v>18674.5</v>
+      </c>
+      <c r="I44">
+        <v>995.1</v>
+      </c>
+      <c r="J44">
+        <v>5564.7</v>
+      </c>
+      <c r="K44">
+        <v>311.3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3659.2</v>
+      </c>
+      <c r="O44">
+        <v>12062.3</v>
+      </c>
+      <c r="P44">
+        <v>6907.3</v>
+      </c>
+      <c r="Q44">
+        <v>79.3</v>
+      </c>
+      <c r="R44">
+        <v>40692</v>
+      </c>
+      <c r="S44">
+        <v>35000</v>
+      </c>
+      <c r="T44">
+        <v>6612.2</v>
+      </c>
+      <c r="U44">
+        <v>619.6</v>
+      </c>
+      <c r="V44">
+        <v>278.7</v>
+      </c>
+      <c r="W44">
+        <v>-181.9</v>
+      </c>
+      <c r="X44">
+        <v>35.4</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>320.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>405.6</v>
+      </c>
+      <c r="D45">
+        <v>3847.6</v>
+      </c>
+      <c r="E45">
+        <v>1504</v>
+      </c>
+      <c r="F45">
+        <v>1446.5</v>
+      </c>
+      <c r="G45">
+        <v>4096.3999999999996</v>
+      </c>
+      <c r="H45">
+        <v>21893.200000000001</v>
+      </c>
+      <c r="I45">
+        <v>1181.9000000000001</v>
+      </c>
+      <c r="J45">
+        <v>5974.2</v>
+      </c>
+      <c r="K45">
+        <v>1022.7</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-6.6</v>
+      </c>
+      <c r="N45">
+        <v>4884</v>
+      </c>
+      <c r="O45">
+        <v>13979.8</v>
+      </c>
+      <c r="P45">
+        <v>8122.8</v>
+      </c>
+      <c r="Q45">
+        <v>-281.39999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40783</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7913.4</v>
+      </c>
+      <c r="U45">
+        <v>338.2</v>
+      </c>
+      <c r="V45">
+        <v>440.8</v>
+      </c>
+      <c r="W45">
+        <v>-200.3</v>
+      </c>
+      <c r="X45">
+        <v>431.9</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>405.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40874</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>444.8</v>
+      </c>
+      <c r="D46">
+        <v>4623.8</v>
+      </c>
+      <c r="E46">
+        <v>1510.4</v>
+      </c>
+      <c r="F46">
+        <v>1594.7</v>
+      </c>
+      <c r="G46">
+        <v>4021.6</v>
+      </c>
+      <c r="H46">
+        <v>21466.799999999999</v>
+      </c>
+      <c r="I46">
+        <v>1096.5</v>
+      </c>
+      <c r="J46">
+        <v>5348.4</v>
+      </c>
+      <c r="K46">
+        <v>849</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>5142</v>
+      </c>
+      <c r="O46">
+        <v>13582.1</v>
+      </c>
+      <c r="P46">
+        <v>7929.8</v>
+      </c>
+      <c r="Q46">
+        <v>170.9</v>
+      </c>
+      <c r="R46">
+        <v>40874</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>7884.7</v>
+      </c>
+      <c r="U46">
+        <v>509.1</v>
+      </c>
+      <c r="V46">
+        <v>715.7</v>
+      </c>
+      <c r="W46">
+        <v>-199.2</v>
+      </c>
+      <c r="X46">
+        <v>-375.9</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-22.1</v>
+      </c>
+      <c r="AA46">
+        <v>444.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40965</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>391.5</v>
+      </c>
+      <c r="D47">
+        <v>4120.1000000000004</v>
+      </c>
+      <c r="E47">
+        <v>1437.1</v>
+      </c>
+      <c r="F47">
+        <v>1507.4</v>
+      </c>
+      <c r="G47">
+        <v>3836.3</v>
+      </c>
+      <c r="H47">
+        <v>21439</v>
+      </c>
+      <c r="I47">
+        <v>1011.9</v>
+      </c>
+      <c r="J47">
+        <v>6194.8</v>
+      </c>
+      <c r="K47">
+        <v>690.8</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3849</v>
+      </c>
+      <c r="O47">
+        <v>13186.2</v>
+      </c>
+      <c r="P47">
+        <v>7634.9</v>
+      </c>
+      <c r="Q47">
+        <v>-23.8</v>
+      </c>
+      <c r="R47">
+        <v>40965</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>8252.7999999999993</v>
+      </c>
+      <c r="U47">
+        <v>485.3</v>
+      </c>
+      <c r="V47">
+        <v>505.1</v>
+      </c>
+      <c r="W47">
+        <v>-200</v>
+      </c>
+      <c r="X47">
+        <v>-377.5</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41056</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="D48">
+        <v>4066.4</v>
+      </c>
+      <c r="E48">
+        <v>1323.6</v>
+      </c>
+      <c r="F48">
+        <v>1496.1</v>
+      </c>
+      <c r="G48">
+        <v>3691.4</v>
+      </c>
+      <c r="H48">
+        <v>21096.799999999999</v>
+      </c>
+      <c r="I48">
+        <v>1148.9000000000001</v>
+      </c>
+      <c r="J48">
+        <v>6161.9</v>
+      </c>
+      <c r="K48">
+        <v>526.5</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3843.2</v>
+      </c>
+      <c r="O48">
+        <v>13366.3</v>
+      </c>
+      <c r="P48">
+        <v>7429.6</v>
+      </c>
+      <c r="Q48">
+        <v>-14.1</v>
+      </c>
+      <c r="R48">
+        <v>41056</v>
+      </c>
+      <c r="S48">
+        <v>35000</v>
+      </c>
+      <c r="T48">
+        <v>7730.5</v>
+      </c>
+      <c r="U48">
+        <v>471.2</v>
+      </c>
+      <c r="V48">
+        <v>745.6</v>
+      </c>
+      <c r="W48">
+        <v>-200.6</v>
+      </c>
+      <c r="X48">
+        <v>-345.1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-0.1</v>
+      </c>
+      <c r="AA48">
+        <v>325.39999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>548.9</v>
+      </c>
+      <c r="D49">
+        <v>4051</v>
+      </c>
+      <c r="E49">
+        <v>1473.5</v>
+      </c>
+      <c r="F49">
+        <v>1628.3</v>
+      </c>
+      <c r="G49">
+        <v>5217.3999999999996</v>
+      </c>
+      <c r="H49">
+        <v>22635.3</v>
+      </c>
+      <c r="I49">
+        <v>1264.9000000000001</v>
+      </c>
+      <c r="J49">
+        <v>5462</v>
+      </c>
+      <c r="K49">
+        <v>1682.1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-0.4</v>
+      </c>
+      <c r="N49">
+        <v>5975.5</v>
+      </c>
+      <c r="O49">
+        <v>14690.5</v>
+      </c>
+      <c r="P49">
+        <v>8585.2000000000007</v>
+      </c>
+      <c r="Q49">
+        <v>1037.2</v>
+      </c>
+      <c r="R49">
+        <v>41147</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7944.8</v>
+      </c>
+      <c r="U49">
+        <v>1508.4</v>
+      </c>
+      <c r="V49">
+        <v>488.8</v>
+      </c>
+      <c r="W49">
+        <v>-217.8</v>
+      </c>
+      <c r="X49">
+        <v>692.8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>7.5</v>
+      </c>
+      <c r="AA49">
+        <v>548.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>541.6</v>
+      </c>
+      <c r="D50">
+        <v>4881.8</v>
+      </c>
+      <c r="E50">
+        <v>1673.8</v>
+      </c>
+      <c r="F50">
+        <v>1742.3</v>
+      </c>
+      <c r="G50">
+        <v>4565.5</v>
+      </c>
+      <c r="H50">
+        <v>22952.9</v>
+      </c>
+      <c r="I50">
+        <v>1244.9000000000001</v>
+      </c>
+      <c r="J50">
+        <v>5572.1</v>
+      </c>
+      <c r="K50">
+        <v>1939.9</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>5736.4</v>
+      </c>
+      <c r="O50">
+        <v>14635.3</v>
+      </c>
+      <c r="P50">
+        <v>8332.7999999999993</v>
+      </c>
+      <c r="Q50">
+        <v>-773.5</v>
+      </c>
+      <c r="R50">
+        <v>41238</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>8317.6</v>
+      </c>
+      <c r="U50">
+        <v>734.9</v>
+      </c>
+      <c r="V50">
+        <v>828.3</v>
+      </c>
+      <c r="W50">
+        <v>-216.7</v>
+      </c>
+      <c r="X50">
+        <v>-659.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-11.2</v>
+      </c>
+      <c r="AA50">
+        <v>541.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>398.4</v>
+      </c>
+      <c r="D51">
+        <v>4430.6000000000004</v>
+      </c>
+      <c r="E51">
+        <v>1591.5</v>
+      </c>
+      <c r="F51">
+        <v>1522.7</v>
+      </c>
+      <c r="G51">
+        <v>4365.8</v>
+      </c>
+      <c r="H51">
+        <v>22793.4</v>
+      </c>
+      <c r="I51">
+        <v>1186</v>
+      </c>
+      <c r="J51">
+        <v>6631.9</v>
+      </c>
+      <c r="K51">
+        <v>682.7</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>4282.6000000000004</v>
+      </c>
+      <c r="O51">
+        <v>14329.8</v>
+      </c>
+      <c r="P51">
+        <v>8058.6</v>
+      </c>
+      <c r="Q51">
+        <v>16.3</v>
+      </c>
+      <c r="R51">
+        <v>41329</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8463.6</v>
+      </c>
+      <c r="U51">
+        <v>751.2</v>
+      </c>
+      <c r="V51">
+        <v>828.6</v>
+      </c>
+      <c r="W51">
+        <v>-217.1</v>
+      </c>
+      <c r="X51">
+        <v>-633</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0.5</v>
+      </c>
+      <c r="AA51">
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>366.3</v>
+      </c>
+      <c r="D52">
+        <v>4410.7</v>
+      </c>
+      <c r="E52">
+        <v>1446.4</v>
+      </c>
+      <c r="F52">
+        <v>1547.6</v>
+      </c>
+      <c r="G52">
+        <v>4298.8999999999996</v>
+      </c>
+      <c r="H52">
+        <v>22658</v>
+      </c>
+      <c r="I52">
+        <v>1423.2</v>
+      </c>
+      <c r="J52">
+        <v>5926.1</v>
+      </c>
+      <c r="K52">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>5293.9</v>
+      </c>
+      <c r="O52">
+        <v>14562</v>
+      </c>
+      <c r="P52">
+        <v>7969.1</v>
+      </c>
+      <c r="Q52">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="R52">
+        <v>41420</v>
+      </c>
+      <c r="S52">
+        <v>41000</v>
+      </c>
+      <c r="T52">
+        <v>8096</v>
+      </c>
+      <c r="U52">
+        <v>741.4</v>
+      </c>
+      <c r="V52">
+        <v>780.3</v>
+      </c>
+      <c r="W52">
+        <v>-216</v>
+      </c>
+      <c r="X52">
+        <v>-540.9</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>459.3</v>
+      </c>
+      <c r="D53">
+        <v>4372.7</v>
+      </c>
+      <c r="E53">
+        <v>1637.5</v>
+      </c>
+      <c r="F53">
+        <v>1613</v>
+      </c>
+      <c r="G53">
+        <v>4693.2</v>
+      </c>
+      <c r="H53">
+        <v>22944.6</v>
+      </c>
+      <c r="I53">
+        <v>1425.5</v>
+      </c>
+      <c r="J53">
+        <v>5913.5</v>
+      </c>
+      <c r="K53">
+        <v>1583.1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-719.9</v>
+      </c>
+      <c r="N53">
+        <v>5462.9</v>
+      </c>
+      <c r="O53">
+        <v>14654.9</v>
+      </c>
+      <c r="P53">
+        <v>8244.6</v>
+      </c>
+      <c r="Q53">
+        <v>17.5</v>
+      </c>
+      <c r="R53">
+        <v>41511</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8289.7000000000007</v>
+      </c>
+      <c r="U53">
+        <v>758.9</v>
+      </c>
+      <c r="V53">
+        <v>381.1</v>
+      </c>
+      <c r="W53">
+        <v>-247.5</v>
+      </c>
+      <c r="X53">
+        <v>-237.3</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+      <c r="AA53">
+        <v>459.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>549.9</v>
+      </c>
+      <c r="D54">
+        <v>4875.7</v>
+      </c>
+      <c r="E54">
+        <v>1725.5</v>
+      </c>
+      <c r="F54">
+        <v>1761.7</v>
+      </c>
+      <c r="G54">
+        <v>4775.8</v>
+      </c>
+      <c r="H54">
+        <v>23152.1</v>
+      </c>
+      <c r="I54">
+        <v>1424.1</v>
+      </c>
+      <c r="J54">
+        <v>6740.6</v>
+      </c>
+      <c r="K54">
+        <v>1051.3</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4990.1000000000004</v>
+      </c>
+      <c r="O54">
+        <v>15055.2</v>
+      </c>
+      <c r="P54">
+        <v>8644.7000000000007</v>
+      </c>
+      <c r="Q54">
+        <v>15.3</v>
+      </c>
+      <c r="R54">
+        <v>41602</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>8096.9</v>
+      </c>
+      <c r="U54">
+        <v>774.2</v>
+      </c>
+      <c r="V54">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="W54">
+        <v>-242.3</v>
+      </c>
+      <c r="X54">
+        <v>-416.9</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-57.9</v>
+      </c>
+      <c r="AA54">
+        <v>549.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>410.6</v>
+      </c>
+      <c r="D55">
+        <v>4377.3999999999996</v>
+      </c>
+      <c r="E55">
+        <v>1648.1</v>
+      </c>
+      <c r="F55">
+        <v>1512.7</v>
+      </c>
+      <c r="G55">
+        <v>4557.6000000000004</v>
+      </c>
+      <c r="H55">
+        <v>22925</v>
+      </c>
+      <c r="I55">
+        <v>1360.3</v>
+      </c>
+      <c r="J55">
+        <v>7179.6</v>
+      </c>
+      <c r="K55">
+        <v>545.29999999999995</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>4683.6000000000004</v>
+      </c>
+      <c r="O55">
+        <v>15159.6</v>
+      </c>
+      <c r="P55">
+        <v>8928.7000000000007</v>
+      </c>
+      <c r="Q55">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="R55">
+        <v>41693</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7765.4</v>
+      </c>
+      <c r="U55">
+        <v>847.1</v>
+      </c>
+      <c r="V55">
+        <v>715.3</v>
+      </c>
+      <c r="W55">
+        <v>-239.6</v>
+      </c>
+      <c r="X55">
+        <v>-516</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0.9</v>
+      </c>
+      <c r="AA55">
+        <v>410.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>404.6</v>
+      </c>
+      <c r="D56">
+        <v>4283.8</v>
+      </c>
+      <c r="E56">
+        <v>1483.6</v>
+      </c>
+      <c r="F56">
+        <v>1482.4</v>
+      </c>
+      <c r="G56">
+        <v>4393.5</v>
+      </c>
+      <c r="H56">
+        <v>23145.7</v>
+      </c>
+      <c r="I56">
+        <v>1611.3</v>
+      </c>
+      <c r="J56">
+        <v>6423.5</v>
+      </c>
+      <c r="K56">
+        <v>1111.7</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>5423.5</v>
+      </c>
+      <c r="O56">
+        <v>15156.2</v>
+      </c>
+      <c r="P56">
+        <v>8785.7999999999993</v>
+      </c>
+      <c r="Q56">
+        <v>20.2</v>
+      </c>
+      <c r="R56">
+        <v>41784</v>
+      </c>
+      <c r="S56">
+        <v>43000</v>
+      </c>
+      <c r="T56">
+        <v>7989.5</v>
+      </c>
+      <c r="U56">
+        <v>867.3</v>
+      </c>
+      <c r="V56">
+        <v>816.8</v>
+      </c>
+      <c r="W56">
+        <v>-253.9</v>
+      </c>
+      <c r="X56">
+        <v>-653.9</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-8.9</v>
+      </c>
+      <c r="AA56">
+        <v>404.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>345.2</v>
+      </c>
+      <c r="D57">
+        <v>4268.3999999999996</v>
+      </c>
+      <c r="E57">
+        <v>1623.3</v>
+      </c>
+      <c r="F57">
+        <v>1438.7</v>
+      </c>
+      <c r="G57">
+        <v>4695.5</v>
+      </c>
+      <c r="H57">
+        <v>23372.799999999999</v>
+      </c>
+      <c r="I57">
+        <v>1571.3</v>
+      </c>
+      <c r="J57">
+        <v>6669.1</v>
+      </c>
+      <c r="K57">
+        <v>1795.4</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-393.4</v>
+      </c>
+      <c r="N57">
+        <v>5793.1</v>
+      </c>
+      <c r="O57">
+        <v>15730.9</v>
+      </c>
+      <c r="P57">
+        <v>9319.9</v>
+      </c>
+      <c r="Q57">
+        <v>-26.1</v>
+      </c>
+      <c r="R57">
+        <v>41875</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7641.9</v>
+      </c>
+      <c r="U57">
+        <v>841.2</v>
+      </c>
+      <c r="V57">
+        <v>329.4</v>
+      </c>
+      <c r="W57">
+        <v>-254.4</v>
+      </c>
+      <c r="X57">
+        <v>-153.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>345.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>346.1</v>
+      </c>
+      <c r="D58">
+        <v>4712.2</v>
+      </c>
+      <c r="E58">
+        <v>1705.8</v>
+      </c>
+      <c r="F58">
+        <v>1638.4</v>
+      </c>
+      <c r="G58">
+        <v>4986.3999999999996</v>
+      </c>
+      <c r="H58">
+        <v>24203.7</v>
+      </c>
+      <c r="I58">
+        <v>1656.7</v>
+      </c>
+      <c r="J58">
+        <v>7713.1</v>
+      </c>
+      <c r="K58">
+        <v>2071.4</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>6093.7</v>
+      </c>
+      <c r="O58">
+        <v>17192.099999999999</v>
+      </c>
+      <c r="P58">
+        <v>10535.2</v>
+      </c>
+      <c r="Q58">
+        <v>53.3</v>
+      </c>
+      <c r="R58">
+        <v>41966</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>7011.6</v>
+      </c>
+      <c r="U58">
+        <v>894.5</v>
+      </c>
+      <c r="V58">
+        <v>533.79999999999995</v>
+      </c>
+      <c r="W58">
+        <v>-248.8</v>
+      </c>
+      <c r="X58">
+        <v>522.79999999999995</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0.9</v>
+      </c>
+      <c r="AA58">
+        <v>346.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42057</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>343.2</v>
+      </c>
+      <c r="D59">
+        <v>4350.8999999999996</v>
+      </c>
+      <c r="E59">
+        <v>1585.3</v>
+      </c>
+      <c r="F59">
+        <v>1400.6</v>
+      </c>
+      <c r="G59">
+        <v>4464.3999999999996</v>
+      </c>
+      <c r="H59">
+        <v>23383.1</v>
+      </c>
+      <c r="I59">
+        <v>1481.3</v>
+      </c>
+      <c r="J59">
+        <v>6642.6</v>
+      </c>
+      <c r="K59">
+        <v>1897.9</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>6702.5</v>
+      </c>
+      <c r="O59">
+        <v>16732.5</v>
+      </c>
+      <c r="P59">
+        <v>10291.1</v>
+      </c>
+      <c r="Q59">
+        <v>-110.3</v>
+      </c>
+      <c r="R59">
+        <v>42057</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6650.6</v>
+      </c>
+      <c r="U59">
+        <v>784.2</v>
+      </c>
+      <c r="V59">
+        <v>698.2</v>
+      </c>
+      <c r="W59">
+        <v>-248.1</v>
+      </c>
+      <c r="X59">
+        <v>-516.20000000000005</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-59.8</v>
+      </c>
+      <c r="AA59">
+        <v>343.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>186.8</v>
+      </c>
+      <c r="D60">
+        <v>4298.8</v>
+      </c>
+      <c r="E60">
+        <v>1386.7</v>
+      </c>
+      <c r="F60">
+        <v>1544.3</v>
+      </c>
+      <c r="G60">
+        <v>3685.6</v>
+      </c>
+      <c r="H60">
+        <v>21832</v>
+      </c>
+      <c r="I60">
+        <v>1684</v>
+      </c>
+      <c r="J60">
+        <v>7575.3</v>
+      </c>
+      <c r="K60">
+        <v>615.79999999999995</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4890.1000000000004</v>
+      </c>
+      <c r="O60">
+        <v>15660.4</v>
+      </c>
+      <c r="P60">
+        <v>9191.5</v>
+      </c>
+      <c r="Q60">
+        <v>-450</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>42000</v>
+      </c>
+      <c r="T60">
+        <v>6171.6</v>
+      </c>
+      <c r="U60">
+        <v>334.2</v>
+      </c>
+      <c r="V60">
+        <v>981.4</v>
+      </c>
+      <c r="W60">
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-1238.3</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-10.3</v>
+      </c>
+      <c r="AA60">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>426.6</v>
+      </c>
+      <c r="D61">
+        <v>4207.8999999999996</v>
+      </c>
+      <c r="E61">
+        <v>1531.5</v>
+      </c>
+      <c r="F61">
+        <v>1589.5</v>
+      </c>
+      <c r="G61">
+        <v>4305.1000000000004</v>
+      </c>
+      <c r="H61">
+        <v>22322.9</v>
+      </c>
+      <c r="I61">
+        <v>1759.6</v>
+      </c>
+      <c r="J61">
+        <v>7609.7</v>
+      </c>
+      <c r="K61">
+        <v>823.7</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-0.2</v>
+      </c>
+      <c r="N61">
+        <v>5299.9</v>
+      </c>
+      <c r="O61">
+        <v>16184.3</v>
+      </c>
+      <c r="P61">
+        <v>9433.7000000000007</v>
+      </c>
+      <c r="Q61">
+        <v>116.4</v>
+      </c>
+      <c r="R61">
+        <v>42246</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6138.6</v>
+      </c>
+      <c r="U61">
+        <v>450.6</v>
+      </c>
+      <c r="V61">
+        <v>430.9</v>
+      </c>
+      <c r="W61">
+        <v>-266.5</v>
+      </c>
+      <c r="X61">
+        <v>-156.9</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>426.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>529.5</v>
+      </c>
+      <c r="D62">
+        <v>4424.8999999999996</v>
+      </c>
+      <c r="E62">
+        <v>1461.3</v>
+      </c>
+      <c r="F62">
+        <v>1578.6</v>
+      </c>
+      <c r="G62">
+        <v>4047.6</v>
+      </c>
+      <c r="H62">
+        <v>21588.7</v>
+      </c>
+      <c r="I62">
+        <v>1704.1</v>
+      </c>
+      <c r="J62">
+        <v>7416.6</v>
+      </c>
+      <c r="K62">
+        <v>306.7</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4969.3999999999996</v>
+      </c>
+      <c r="O62">
+        <v>15606.1</v>
+      </c>
+      <c r="P62">
+        <v>8823.5</v>
+      </c>
+      <c r="Q62">
+        <v>199.2</v>
+      </c>
+      <c r="R62">
+        <v>42337</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5982.6</v>
+      </c>
+      <c r="U62">
+        <v>649.79999999999995</v>
+      </c>
+      <c r="V62">
+        <v>725.1</v>
+      </c>
+      <c r="W62">
+        <v>-264.39999999999998</v>
+      </c>
+      <c r="X62">
+        <v>-1184.9000000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>10.7</v>
+      </c>
+      <c r="AA62">
+        <v>529.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42428</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>361.7</v>
+      </c>
+      <c r="D63">
+        <v>4002.4</v>
+      </c>
+      <c r="E63">
+        <v>1390.9</v>
+      </c>
+      <c r="F63">
+        <v>1384.9</v>
+      </c>
+      <c r="G63">
+        <v>4011.3</v>
+      </c>
+      <c r="H63">
+        <v>21631.599999999999</v>
+      </c>
+      <c r="I63">
+        <v>1725.6</v>
+      </c>
+      <c r="J63">
+        <v>7024.4</v>
+      </c>
+      <c r="K63">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>5253.7</v>
+      </c>
+      <c r="O63">
+        <v>15541.2</v>
+      </c>
+      <c r="P63">
+        <v>8768.2000000000007</v>
+      </c>
+      <c r="Q63">
+        <v>132.9</v>
+      </c>
+      <c r="R63">
+        <v>42428</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6090.4</v>
+      </c>
+      <c r="U63">
+        <v>782.7</v>
+      </c>
+      <c r="V63">
+        <v>706.5</v>
+      </c>
+      <c r="W63">
+        <v>-263.7</v>
+      </c>
+      <c r="X63">
+        <v>-378.7</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>52</v>
+      </c>
+      <c r="AA63">
+        <v>361.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>379.6</v>
+      </c>
+      <c r="D64">
+        <v>3927.9</v>
+      </c>
+      <c r="E64">
+        <v>1360.8</v>
+      </c>
+      <c r="F64">
+        <v>1412.4</v>
+      </c>
+      <c r="G64">
+        <v>3937.2</v>
+      </c>
+      <c r="H64">
+        <v>21712.3</v>
+      </c>
+      <c r="I64">
+        <v>2046.5</v>
+      </c>
+      <c r="J64">
+        <v>7057.7</v>
+      </c>
+      <c r="K64">
+        <v>269.8</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>5014.7</v>
+      </c>
+      <c r="O64">
+        <v>15559.6</v>
+      </c>
+      <c r="P64">
+        <v>8430.9</v>
+      </c>
+      <c r="Q64">
+        <v>-19</v>
+      </c>
+      <c r="R64">
+        <v>42519</v>
+      </c>
+      <c r="S64">
+        <v>39000</v>
+      </c>
+      <c r="T64">
+        <v>6152.7</v>
+      </c>
+      <c r="U64">
+        <v>763.7</v>
+      </c>
+      <c r="V64">
+        <v>767.3</v>
+      </c>
+      <c r="W64">
+        <v>-277.10000000000002</v>
+      </c>
+      <c r="X64">
+        <v>-565.1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0.2</v>
+      </c>
+      <c r="AA64">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42610</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>409</v>
+      </c>
+      <c r="D65">
+        <v>3907.9</v>
+      </c>
+      <c r="E65">
+        <v>1446.1</v>
+      </c>
+      <c r="F65">
+        <v>1444.3</v>
+      </c>
+      <c r="G65">
+        <v>4193</v>
+      </c>
+      <c r="H65">
+        <v>21913.1</v>
+      </c>
+      <c r="I65">
+        <v>1944.8</v>
+      </c>
+      <c r="J65">
+        <v>7078</v>
+      </c>
+      <c r="K65">
+        <v>690.5</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>5215.1000000000004</v>
+      </c>
+      <c r="O65">
+        <v>15783.5</v>
+      </c>
+      <c r="P65">
+        <v>8871.9</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>42610</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6129.6</v>
+      </c>
+      <c r="U65">
+        <v>765.7</v>
+      </c>
+      <c r="V65">
+        <v>370.8</v>
+      </c>
+      <c r="W65">
+        <v>-290.89999999999998</v>
+      </c>
+      <c r="X65">
+        <v>-238.2</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>8.1</v>
+      </c>
+      <c r="AA65">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>481.8</v>
+      </c>
+      <c r="D66">
+        <v>4112.1000000000004</v>
+      </c>
+      <c r="E66">
+        <v>1382.7</v>
+      </c>
+      <c r="F66">
+        <v>1543.4</v>
+      </c>
+      <c r="G66">
+        <v>4111.5</v>
+      </c>
+      <c r="H66">
+        <v>21602.1</v>
+      </c>
+      <c r="I66">
+        <v>1938.3</v>
+      </c>
+      <c r="J66">
+        <v>6542</v>
+      </c>
+      <c r="K66">
+        <v>1421.7</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>6244.4</v>
+      </c>
+      <c r="O66">
+        <v>16274.6</v>
+      </c>
+      <c r="P66">
+        <v>9471.2999999999993</v>
+      </c>
+      <c r="Q66">
+        <v>44</v>
+      </c>
+      <c r="R66">
+        <v>42701</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5327.5</v>
+      </c>
+      <c r="U66">
+        <v>809.7</v>
+      </c>
+      <c r="V66">
+        <v>707.9</v>
+      </c>
+      <c r="W66">
+        <v>-284.60000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-481.8</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-15.8</v>
+      </c>
+      <c r="AA66">
+        <v>481.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42792</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>357.8</v>
+      </c>
+      <c r="D67">
+        <v>3793.2</v>
+      </c>
+      <c r="E67">
+        <v>1427.5</v>
+      </c>
+      <c r="F67">
+        <v>1335.6</v>
+      </c>
+      <c r="G67">
+        <v>4128</v>
+      </c>
+      <c r="H67">
+        <v>21670.3</v>
+      </c>
+      <c r="I67">
+        <v>1855.3</v>
+      </c>
+      <c r="J67">
+        <v>7176.4</v>
+      </c>
+      <c r="K67">
+        <v>1942</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>5743.5</v>
+      </c>
+      <c r="O67">
+        <v>16397.599999999999</v>
+      </c>
+      <c r="P67">
+        <v>9723.1</v>
+      </c>
+      <c r="Q67">
+        <v>89.4</v>
+      </c>
+      <c r="R67">
+        <v>42792</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5272.7</v>
+      </c>
+      <c r="U67">
+        <v>899.1</v>
+      </c>
+      <c r="V67">
+        <v>580.29999999999995</v>
+      </c>
+      <c r="W67">
+        <v>-280.8</v>
+      </c>
+      <c r="X67">
+        <v>-363.1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>12.5</v>
+      </c>
+      <c r="AA67">
+        <v>357.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42883</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>408.9</v>
+      </c>
+      <c r="D68">
+        <v>3806.6</v>
+      </c>
+      <c r="E68">
+        <v>1430.1</v>
+      </c>
+      <c r="F68">
+        <v>1325.9</v>
+      </c>
+      <c r="G68">
+        <v>4061.4</v>
+      </c>
+      <c r="H68">
+        <v>21812.6</v>
+      </c>
+      <c r="I68">
+        <v>2119.8000000000002</v>
+      </c>
+      <c r="J68">
+        <v>7642.9</v>
+      </c>
+      <c r="K68">
+        <v>1234.0999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5330.8</v>
+      </c>
+      <c r="O68">
+        <v>16216.2</v>
+      </c>
+      <c r="P68">
+        <v>9481.7000000000007</v>
+      </c>
+      <c r="Q68">
+        <v>-133</v>
+      </c>
+      <c r="R68">
+        <v>42883</v>
+      </c>
+      <c r="S68">
+        <v>38000</v>
+      </c>
+      <c r="T68">
+        <v>5596.4</v>
+      </c>
+      <c r="U68">
+        <v>766.1</v>
+      </c>
+      <c r="V68">
+        <v>756.2</v>
+      </c>
+      <c r="W68">
+        <v>-278.8</v>
+      </c>
+      <c r="X68">
+        <v>-664.3</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1.5</v>
+      </c>
+      <c r="AA68">
+        <v>408.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42974</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>404.7</v>
+      </c>
+      <c r="D69">
+        <v>3769.2</v>
+      </c>
+      <c r="E69">
+        <v>1546.5</v>
+      </c>
+      <c r="F69">
+        <v>1326.8</v>
+      </c>
+      <c r="G69">
+        <v>4338.5</v>
+      </c>
+      <c r="H69">
+        <v>22209.599999999999</v>
+      </c>
+      <c r="I69">
+        <v>2172.9</v>
+      </c>
+      <c r="J69">
+        <v>7822.7</v>
+      </c>
+      <c r="K69">
+        <v>1660.3</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5889.9</v>
+      </c>
+      <c r="O69">
+        <v>16959.2</v>
+      </c>
+      <c r="P69">
+        <v>10087.700000000001</v>
+      </c>
+      <c r="Q69">
+        <v>54.7</v>
+      </c>
+      <c r="R69">
+        <v>42974</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5250.4</v>
+      </c>
+      <c r="U69">
+        <v>820.8</v>
+      </c>
+      <c r="V69">
+        <v>590.5</v>
+      </c>
+      <c r="W69">
+        <v>-284.3</v>
+      </c>
+      <c r="X69">
+        <v>-451.3</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-6.6</v>
+      </c>
+      <c r="AA69">
+        <v>404.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43065</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>430.5</v>
+      </c>
+      <c r="D70">
+        <v>4198.7</v>
+      </c>
+      <c r="E70">
+        <v>1510.5</v>
+      </c>
+      <c r="F70">
+        <v>1451</v>
+      </c>
+      <c r="G70">
+        <v>4334.1000000000004</v>
+      </c>
+      <c r="H70">
+        <v>22191.5</v>
+      </c>
+      <c r="I70">
+        <v>2467</v>
+      </c>
+      <c r="J70">
+        <v>8228.2999999999993</v>
+      </c>
+      <c r="K70">
+        <v>1298</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5349.5</v>
+      </c>
+      <c r="O70">
+        <v>16808.400000000001</v>
+      </c>
+      <c r="P70">
+        <v>9726.7999999999993</v>
+      </c>
+      <c r="Q70">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43065</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5383.1</v>
+      </c>
+      <c r="U70">
+        <v>962.1</v>
+      </c>
+      <c r="V70">
+        <v>976.3</v>
+      </c>
+      <c r="W70">
+        <v>-280.89999999999998</v>
+      </c>
+      <c r="X70">
+        <v>-679.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-0.8</v>
+      </c>
+      <c r="AA70">
+        <v>430.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>941.4</v>
+      </c>
+      <c r="D71">
+        <v>3882.3</v>
+      </c>
+      <c r="E71">
+        <v>1496.5</v>
+      </c>
+      <c r="F71">
+        <v>1259.5999999999999</v>
+      </c>
+      <c r="G71">
+        <v>4277.1000000000004</v>
+      </c>
+      <c r="H71">
+        <v>22240.6</v>
+      </c>
+      <c r="I71">
+        <v>2505.6999999999998</v>
+      </c>
+      <c r="J71">
+        <v>7163.6</v>
+      </c>
+      <c r="K71">
+        <v>1210.8</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>6209.6</v>
+      </c>
+      <c r="O71">
+        <v>16088.4</v>
+      </c>
+      <c r="P71">
+        <v>9624.9</v>
+      </c>
+      <c r="Q71">
+        <v>-9</v>
+      </c>
+      <c r="R71">
+        <v>43156</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>6152.2</v>
+      </c>
+      <c r="U71">
+        <v>953.1</v>
+      </c>
+      <c r="V71">
+        <v>568.5</v>
+      </c>
+      <c r="W71">
+        <v>-281.3</v>
+      </c>
+      <c r="X71">
+        <v>-438.7</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-7.8</v>
+      </c>
+      <c r="AA71">
+        <v>941.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>354.4</v>
+      </c>
+      <c r="D72">
+        <v>3890.2</v>
+      </c>
+      <c r="E72">
+        <v>1684.2</v>
+      </c>
+      <c r="F72">
+        <v>1423.5</v>
+      </c>
+      <c r="G72">
+        <v>4123.7</v>
+      </c>
+      <c r="H72">
+        <v>30624</v>
+      </c>
+      <c r="I72">
+        <v>2746.2</v>
+      </c>
+      <c r="J72">
+        <v>12668.7</v>
+      </c>
+      <c r="K72">
+        <v>1549.8</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>7341.9</v>
+      </c>
+      <c r="O72">
+        <v>23355.4</v>
+      </c>
+      <c r="P72">
+        <v>15818.6</v>
+      </c>
+      <c r="Q72">
+        <v>-554.1</v>
+      </c>
+      <c r="R72">
+        <v>43247</v>
+      </c>
+      <c r="S72">
+        <v>40000</v>
+      </c>
+      <c r="T72">
+        <v>7268.6</v>
+      </c>
+      <c r="U72">
+        <v>399</v>
+      </c>
+      <c r="V72">
+        <v>705.7</v>
+      </c>
+      <c r="W72">
+        <v>-293.2</v>
+      </c>
+      <c r="X72">
+        <v>7015.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-2.1</v>
+      </c>
+      <c r="AA72">
+        <v>354.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43338</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>392.3</v>
+      </c>
+      <c r="D73">
+        <v>4094</v>
+      </c>
+      <c r="E73">
+        <v>1709.1</v>
+      </c>
+      <c r="F73">
+        <v>1397.2</v>
+      </c>
+      <c r="G73">
+        <v>4185.5</v>
+      </c>
+      <c r="H73">
+        <v>30554.799999999999</v>
+      </c>
+      <c r="I73">
+        <v>2723.8</v>
+      </c>
+      <c r="J73">
+        <v>12665.1</v>
+      </c>
+      <c r="K73">
+        <v>1349.4</v>
+      </c>
+      <c r="L73">
+        <v>-189.8</v>
+      </c>
+      <c r="M73">
+        <v>-0.2</v>
+      </c>
+      <c r="N73">
+        <v>7187.8</v>
+      </c>
+      <c r="O73">
+        <v>23207.4</v>
+      </c>
+      <c r="P73">
+        <v>15613.7</v>
+      </c>
+      <c r="Q73">
+        <v>33.9</v>
+      </c>
+      <c r="R73">
+        <v>43338</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7347.4</v>
+      </c>
+      <c r="U73">
+        <v>432.9</v>
+      </c>
+      <c r="V73">
+        <v>607.4</v>
+      </c>
+      <c r="W73">
+        <v>-294.2</v>
+      </c>
+      <c r="X73">
+        <v>-423</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0.1</v>
+      </c>
+      <c r="AA73">
+        <v>392.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>343.4</v>
+      </c>
+      <c r="D74">
+        <v>4411.2</v>
+      </c>
+      <c r="E74">
+        <v>1716.8</v>
+      </c>
+      <c r="F74">
+        <v>1509.7</v>
+      </c>
+      <c r="G74">
+        <v>4233.8</v>
+      </c>
+      <c r="H74">
+        <v>30384</v>
+      </c>
+      <c r="I74">
+        <v>2823.9</v>
+      </c>
+      <c r="J74">
+        <v>12208.6</v>
+      </c>
+      <c r="K74">
+        <v>1056.3</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7298.1</v>
+      </c>
+      <c r="O74">
+        <v>22857</v>
+      </c>
+      <c r="P74">
+        <v>15255.5</v>
+      </c>
+      <c r="Q74">
+        <v>99.8</v>
+      </c>
+      <c r="R74">
+        <v>43429</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>7527</v>
+      </c>
+      <c r="U74">
+        <v>532.70000000000005</v>
+      </c>
+      <c r="V74">
+        <v>789.1</v>
+      </c>
+      <c r="W74">
+        <v>-295</v>
+      </c>
+      <c r="X74">
+        <v>-524.29999999999995</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-1.6</v>
+      </c>
+      <c r="AA74">
+        <v>343.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>446.8</v>
+      </c>
+      <c r="D75">
+        <v>4198.3</v>
+      </c>
+      <c r="E75">
+        <v>1704.1</v>
+      </c>
+      <c r="F75">
+        <v>1443.2</v>
+      </c>
+      <c r="G75">
+        <v>4169.8</v>
+      </c>
+      <c r="H75">
+        <v>30285.8</v>
+      </c>
+      <c r="I75">
+        <v>2750.5</v>
+      </c>
+      <c r="J75">
+        <v>11642.6</v>
+      </c>
+      <c r="K75">
+        <v>1971.3</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>7516.6</v>
+      </c>
+      <c r="O75">
+        <v>22487.5</v>
+      </c>
+      <c r="P75">
+        <v>15021.1</v>
+      </c>
+      <c r="Q75">
+        <v>14.4</v>
+      </c>
+      <c r="R75">
+        <v>43520</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7798.3</v>
+      </c>
+      <c r="U75">
+        <v>547.1</v>
+      </c>
+      <c r="V75">
+        <v>631.1</v>
+      </c>
+      <c r="W75">
+        <v>-294.5</v>
+      </c>
+      <c r="X75">
+        <v>-510.7</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>446.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43611</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="D76">
+        <v>4161.7</v>
+      </c>
+      <c r="E76">
+        <v>1679.7</v>
+      </c>
+      <c r="F76">
+        <v>1470.9</v>
+      </c>
+      <c r="G76">
+        <v>4186.5</v>
+      </c>
+      <c r="H76">
+        <v>30111.200000000001</v>
+      </c>
+      <c r="I76">
+        <v>2854.1</v>
+      </c>
+      <c r="J76">
+        <v>11624.8</v>
+      </c>
+      <c r="K76">
+        <v>1468.7</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7087.1</v>
+      </c>
+      <c r="O76">
+        <v>22191.8</v>
+      </c>
+      <c r="P76">
+        <v>14490</v>
+      </c>
+      <c r="Q76">
+        <v>-97.1</v>
+      </c>
+      <c r="R76">
+        <v>43611</v>
+      </c>
+      <c r="S76">
+        <v>40000</v>
+      </c>
+      <c r="T76">
+        <v>7919.4</v>
+      </c>
+      <c r="U76">
+        <v>450</v>
+      </c>
+      <c r="V76">
+        <v>779.4</v>
+      </c>
+      <c r="W76">
+        <v>-298</v>
+      </c>
+      <c r="X76">
+        <v>-718.4</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>1.6</v>
+      </c>
+      <c r="AA76">
+        <v>570.20000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43702</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>520.6</v>
+      </c>
+      <c r="D77">
+        <v>4002.5</v>
+      </c>
+      <c r="E77">
+        <v>1710.5</v>
+      </c>
+      <c r="F77">
+        <v>1395.6</v>
+      </c>
+      <c r="G77">
+        <v>4261.3999999999996</v>
+      </c>
+      <c r="H77">
+        <v>30313.200000000001</v>
+      </c>
+      <c r="I77">
+        <v>2786.7</v>
+      </c>
+      <c r="J77">
+        <v>11619.8</v>
+      </c>
+      <c r="K77">
+        <v>1296.0999999999999</v>
+      </c>
+      <c r="L77">
+        <v>-170</v>
+      </c>
+      <c r="M77">
+        <v>-0.1</v>
+      </c>
+      <c r="N77">
+        <v>6903.4</v>
+      </c>
+      <c r="O77">
+        <v>22069.8</v>
+      </c>
+      <c r="P77">
+        <v>14729.1</v>
+      </c>
+      <c r="Q77">
+        <v>54.8</v>
+      </c>
+      <c r="R77">
+        <v>43702</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8243.4</v>
+      </c>
+      <c r="U77">
+        <v>504.8</v>
+      </c>
+      <c r="V77">
+        <v>572.1</v>
+      </c>
+      <c r="W77">
+        <v>-298.5</v>
+      </c>
+      <c r="X77">
+        <v>-428.6</v>
+      </c>
+      <c r="Y77">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>-12.5</v>
+      </c>
+      <c r="AA77">
+        <v>520.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>580.79999999999995</v>
+      </c>
+      <c r="D78">
+        <v>4420.8</v>
+      </c>
+      <c r="E78">
+        <v>1772.7</v>
+      </c>
+      <c r="F78">
+        <v>1581.4</v>
+      </c>
+      <c r="G78">
+        <v>4478.8999999999996</v>
+      </c>
+      <c r="H78">
+        <v>30452.400000000001</v>
+      </c>
+      <c r="I78">
+        <v>3063</v>
+      </c>
+      <c r="J78">
+        <v>10953.1</v>
+      </c>
+      <c r="K78">
+        <v>1345.1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>7362.3</v>
+      </c>
+      <c r="O78">
+        <v>21886.7</v>
+      </c>
+      <c r="P78">
+        <v>14252.5</v>
+      </c>
+      <c r="Q78">
+        <v>55.4</v>
+      </c>
+      <c r="R78">
+        <v>43793</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>8565.7000000000007</v>
+      </c>
+      <c r="U78">
+        <v>560.20000000000005</v>
+      </c>
+      <c r="V78">
+        <v>884.5</v>
+      </c>
+      <c r="W78">
+        <v>-297.8</v>
+      </c>
+      <c r="X78">
+        <v>-751.2</v>
+      </c>
+      <c r="Y78">
+        <v>308.5</v>
+      </c>
+      <c r="Z78">
+        <v>-1.8</v>
+      </c>
+      <c r="AA78">
+        <v>580.79999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>454.1</v>
+      </c>
+      <c r="D79">
+        <v>4180.3</v>
+      </c>
+      <c r="E79">
+        <v>1731.1</v>
+      </c>
+      <c r="F79">
+        <v>1410.2</v>
+      </c>
+      <c r="G79">
+        <v>4308.5</v>
+      </c>
+      <c r="H79">
+        <v>30248.7</v>
+      </c>
+      <c r="I79">
+        <v>2931.5</v>
+      </c>
+      <c r="J79">
+        <v>11589.6</v>
+      </c>
+      <c r="K79">
+        <v>1174.5999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>6696.6</v>
+      </c>
+      <c r="O79">
+        <v>21850</v>
+      </c>
+      <c r="P79">
+        <v>14038.5</v>
+      </c>
+      <c r="Q79">
+        <v>46.7</v>
+      </c>
+      <c r="R79">
+        <v>43884</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8398.7000000000007</v>
+      </c>
+      <c r="U79">
+        <v>606.9</v>
+      </c>
+      <c r="V79">
+        <v>703.2</v>
+      </c>
+      <c r="W79">
+        <v>-299.10000000000002</v>
+      </c>
+      <c r="X79">
+        <v>-511.6</v>
+      </c>
+      <c r="Y79">
+        <v>300.8</v>
+      </c>
+      <c r="Z79">
+        <v>-26.6</v>
+      </c>
+      <c r="AA79">
+        <v>454.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>625.70000000000005</v>
+      </c>
+      <c r="D80">
+        <v>5023</v>
+      </c>
+      <c r="E80">
+        <v>1615.1</v>
+      </c>
+      <c r="F80">
+        <v>1770</v>
+      </c>
+      <c r="G80">
+        <v>5121.3</v>
+      </c>
+      <c r="H80">
+        <v>30806.7</v>
+      </c>
+      <c r="I80">
+        <v>3247.7</v>
+      </c>
+      <c r="J80">
+        <v>10928.9</v>
+      </c>
+      <c r="K80">
+        <v>279</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>7491.5</v>
+      </c>
+      <c r="O80">
+        <v>21912.6</v>
+      </c>
+      <c r="P80">
+        <v>13918.5</v>
+      </c>
+      <c r="Q80">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>35000</v>
+      </c>
+      <c r="T80">
+        <v>8894.1</v>
+      </c>
+      <c r="U80">
+        <v>1677.8</v>
+      </c>
+      <c r="V80">
+        <v>1516.4</v>
+      </c>
+      <c r="W80">
+        <v>-300.39999999999998</v>
+      </c>
+      <c r="X80">
+        <v>-250.1</v>
+      </c>
+      <c r="Y80">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="Z80">
+        <v>-7.1</v>
+      </c>
+      <c r="AA80">
+        <v>625.70000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>638.9</v>
+      </c>
+      <c r="D81">
+        <v>4364</v>
+      </c>
+      <c r="E81">
+        <v>1633</v>
+      </c>
+      <c r="F81">
+        <v>1590.9</v>
+      </c>
+      <c r="G81">
+        <v>5354.8</v>
+      </c>
+      <c r="H81">
+        <v>31262.2</v>
+      </c>
+      <c r="I81">
+        <v>3184.4</v>
+      </c>
+      <c r="J81">
+        <v>10832.9</v>
+      </c>
+      <c r="K81">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="L81">
+        <v>-120.9</v>
+      </c>
+      <c r="M81">
+        <v>-555.1</v>
+      </c>
+      <c r="N81">
+        <v>7612.7</v>
+      </c>
+      <c r="O81">
+        <v>21919.4</v>
+      </c>
+      <c r="P81">
+        <v>13621.3</v>
+      </c>
+      <c r="Q81">
+        <v>118.9</v>
+      </c>
+      <c r="R81">
+        <v>44073</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>9342.7999999999993</v>
+      </c>
+      <c r="U81">
+        <v>1796.7</v>
+      </c>
+      <c r="V81">
+        <v>583.6</v>
+      </c>
+      <c r="W81">
+        <v>-302.8</v>
+      </c>
+      <c r="X81">
+        <v>-372.7</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-0.7</v>
+      </c>
+      <c r="AA81">
+        <v>638.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>688.4</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4719.3999999999996</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1784.3</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1721.6</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>6408.2</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>32307.599999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>3398.6</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>10952.5</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>126.2</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>8464.2000000000007</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>22867.3</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>13964.4</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>786.1</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44164</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>9440.2999999999993</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2582.8000000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>843.2</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-314.89999999999998</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>19.100000000000001</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>18.8</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>688.4</v>
       </c>
     </row>
